--- a/All Teraco Data/Operations CT1 - NNLS/Outputs/Data Analysis Results.xlsx
+++ b/All Teraco Data/Operations CT1 - NNLS/Outputs/Data Analysis Results.xlsx
@@ -43,7 +43,7 @@
     <t>Small Power and Other</t>
   </si>
   <si>
-    <t>R2 = 0.81490019627136</t>
+    <t>R2 = 0.7612274920768622</t>
   </si>
   <si>
     <t>const</t>
@@ -55,13 +55,13 @@
     <t>CDD 18</t>
   </si>
   <si>
-    <t>R2 = 1.1102230246251565e-16</t>
+    <t>R2 = 0.0</t>
   </si>
   <si>
     <t>Total UPS TEM1</t>
   </si>
   <si>
-    <t>R2 = 0.30786113858823927</t>
+    <t>R2 = 0.3568023361063881</t>
   </si>
   <si>
     <t>Total UPS Total</t>
@@ -622,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.4452640349454917</v>
+        <v>0.4509757043766178</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1.426091942813142</v>
+        <v>1.331382529948205</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -690,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>756.8127998567668</v>
+        <v>749.3263313558335</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -706,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1.348435150903753</v>
+        <v>1.480300339350199</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>244.8846947086345</v>
+        <v>245.1331074541278</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.690937323558878</v>
+        <v>1.682153446715254</v>
       </c>
       <c r="K2">
         <v>467.9846666666601</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>248.9425501827282</v>
+        <v>249.2430154796253</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.658637597480684</v>
+        <v>1.650021507350382</v>
       </c>
       <c r="K3">
         <v>477.0980357142869</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>256.8943032515645</v>
+        <v>257.2967704649935</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.598792345563564</v>
+        <v>1.590487132315091</v>
       </c>
       <c r="K4">
         <v>494.9565476190487</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>267.3664362848728</v>
+        <v>267.903235843676</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.526268408169003</v>
+        <v>1.518339933505345</v>
       </c>
       <c r="K5">
         <v>518.4754761904755</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>271.0251019501102</v>
+        <v>271.6088334126802</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.502457331395169</v>
+        <v>1.494652547635356</v>
       </c>
       <c r="K6">
         <v>526.6923214285717</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>273.2344066777869</v>
+        <v>273.8464782201449</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.488435298605302</v>
+        <v>1.480703354806739</v>
       </c>
       <c r="K7">
         <v>531.6541071428552</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>273.537928328276</v>
+        <v>274.1538933252963</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.486529327264506</v>
+        <v>1.47880728437551</v>
       </c>
       <c r="K8">
         <v>532.3357738095247</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>274.251543455711</v>
+        <v>274.8766624229356</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.482067336021914</v>
+        <v>1.474368471745753</v>
       </c>
       <c r="K9">
         <v>533.9384523809533</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>275.2899892981623</v>
+        <v>275.9284290344333</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.475621932121636</v>
+        <v>1.467956549650673</v>
       </c>
       <c r="K10">
         <v>536.2706547619032</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>277.7772925057538</v>
+        <v>278.4476383754239</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.460409393372748</v>
+        <v>1.452823035159507</v>
       </c>
       <c r="K11">
         <v>541.8567857142854</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>280.6214695365917</v>
+        <v>281.3282993747137</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.443394100964083</v>
+        <v>1.435896131735397</v>
       </c>
       <c r="K12">
         <v>548.2444047619051</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>280.718871044236</v>
+        <v>281.4269503100461</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.442818415146656</v>
+        <v>1.435323436421077</v>
       </c>
       <c r="K13">
         <v>548.4631547619051</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>282.0395559764578</v>
+        <v>282.764576461777</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.435057668572967</v>
+        <v>1.427603004435734</v>
       </c>
       <c r="K14">
         <v>551.4292261904754</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>283.6087936539028</v>
+        <v>284.3539436942029</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.425944196665813</v>
+        <v>1.418536874090999</v>
       </c>
       <c r="K15">
         <v>554.9535119047644</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>284.346050181287</v>
+        <v>285.1006574542398</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.421702368303824</v>
+        <v>1.414317080666323</v>
       </c>
       <c r="K16">
         <v>556.609285714285</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>284.492404228963</v>
+        <v>285.248888873261</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.420863316114162</v>
+        <v>1.413482387083568</v>
       </c>
       <c r="K17">
         <v>556.9379761904738</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>284.8917901660233</v>
+        <v>285.6533979738127</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.418578655263841</v>
+        <v>1.411209594313311</v>
       </c>
       <c r="K18">
         <v>557.8349404761906</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>284.8167843791859</v>
+        <v>285.5774300426606</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.419007160395755</v>
+        <v>1.411635873498555</v>
       </c>
       <c r="K19">
         <v>557.6664880952421</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>285.0645950176787</v>
+        <v>285.828419497176</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.417592412157157</v>
+        <v>1.410228474423121</v>
       </c>
       <c r="K20">
         <v>558.2230357142814</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>286.4236309652956</v>
+        <v>287.2048886158298</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.409883575846662</v>
+        <v>1.402559683043811</v>
       </c>
       <c r="K21">
         <v>561.2752380952422</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>287.298601297771</v>
+        <v>288.0910827187176</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.404964707008827</v>
+        <v>1.397666366151326</v>
       </c>
       <c r="K22">
         <v>563.2402976190427</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>288.1352471186736</v>
+        <v>288.9384606984852</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.400293282717649</v>
+        <v>1.393019208410473</v>
       </c>
       <c r="K23">
         <v>565.119285714286</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>289.2512961215042</v>
+        <v>290.068825932749</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.394109951014003</v>
+        <v>1.38686799713105</v>
       </c>
       <c r="K24">
         <v>567.6257738095287</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>290.2483165064164</v>
+        <v>291.0786356974623</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.388632083698044</v>
+        <v>1.381418585578175</v>
       </c>
       <c r="K25">
         <v>569.8649404761881</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>292.271670491881</v>
+        <v>293.1279444607669</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.377646576071943</v>
+        <v>1.370490144139394</v>
       </c>
       <c r="K26">
         <v>574.4091071428543</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>295.2601077692806</v>
+        <v>296.154716219518</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.361735557288775</v>
+        <v>1.354661777993613</v>
       </c>
       <c r="K27">
         <v>581.1207142857158</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>296.1649744012497</v>
+        <v>297.0711901197042</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1.35699010860343</v>
+        <v>1.349940980391569</v>
       </c>
       <c r="K28">
         <v>583.1529166666691</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>298.166118192588</v>
+        <v>299.0980037853716</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.346611940827218</v>
+        <v>1.339616723867027</v>
       </c>
       <c r="K29">
         <v>587.6472023809495</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>299.9178081091151</v>
+        <v>300.872163681425</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.337656897881567</v>
+        <v>1.330708199496174</v>
       </c>
       <c r="K30">
         <v>591.5812500000022</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>300.1584097108536</v>
+        <v>301.1158516245382</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.336436181645683</v>
+        <v>1.329493824489457</v>
       </c>
       <c r="K31">
         <v>592.1216071428554</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>300.8125502850507</v>
+        <v>301.7783832530943</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.333128569357989</v>
+        <v>1.326203394186321</v>
       </c>
       <c r="K32">
         <v>593.5907142857156</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>303.0209273793236</v>
+        <v>304.0150885278439</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.322082012951954</v>
+        <v>1.315214221096429</v>
       </c>
       <c r="K33">
         <v>598.5504166666707</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>304.0215257788037</v>
+        <v>305.0285222044689</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.317136943675508</v>
+        <v>1.310294839868205</v>
       </c>
       <c r="K34">
         <v>600.797619047619</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>303.8014381272424</v>
+        <v>304.805611356303</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.318221465347925</v>
+        <v>1.311373727798512</v>
       </c>
       <c r="K35">
         <v>600.3033333333276</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>304.0425963090318</v>
+        <v>305.049863019054</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.317033208422685</v>
+        <v>1.310191643486736</v>
       </c>
       <c r="K36">
         <v>600.8449404761972</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>304.4167771212524</v>
+        <v>305.4288436734786</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.315193744722216</v>
+        <v>1.308361735209983</v>
       </c>
       <c r="K37">
         <v>601.685297619047</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>304.958117473262</v>
+        <v>305.9771281235912</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.312541604619895</v>
+        <v>1.30572337212453</v>
       </c>
       <c r="K38">
         <v>602.9010714285707</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>305.7033251441261</v>
+        <v>306.731895021205</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.308908124345037</v>
+        <v>1.302108766613866</v>
       </c>
       <c r="K39">
         <v>604.5747023809457</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>305.9656333675741</v>
+        <v>306.9975680299127</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.30763394516697</v>
+        <v>1.300841206387798</v>
       </c>
       <c r="K40">
         <v>605.1638095238125</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>307.3445736777001</v>
+        <v>308.3941968362982</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1.300976244453302</v>
+        <v>1.294218090293155</v>
       </c>
       <c r="K41">
         <v>608.2607142857132</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>308.9447147994744</v>
+        <v>310.0148639301103</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1.293335037814809</v>
+        <v>1.286616577271399</v>
       </c>
       <c r="K42">
         <v>611.854404761905</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>310.6967492655496</v>
+        <v>311.7893727954561</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.28507077757013</v>
+        <v>1.27839524720703</v>
       </c>
       <c r="K43">
         <v>615.7892261904753</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>311.713090929126</v>
+        <v>312.8187516844894</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1.280324968733842</v>
+        <v>1.273674091324912</v>
       </c>
       <c r="K44">
         <v>618.0717857142888</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>312.6330690150138</v>
+        <v>313.8990487842171</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1.264617438988642</v>
+        <v>1.257755828370551</v>
       </c>
       <c r="K45">
         <v>624.3473214285692</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>300.9982024285295</v>
+        <v>303.0574315281511</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1.245441879134257</v>
+        <v>1.236826758740795</v>
       </c>
       <c r="K46">
         <v>624.9299404761875</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>303.080927792143</v>
+        <v>305.2987098053318</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.226412007772423</v>
+        <v>1.217668435593362</v>
       </c>
       <c r="K47">
         <v>633.344047619052</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>296.9216357627226</v>
+        <v>299.5976427488431</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1.213619328318194</v>
+        <v>1.2039072889516</v>
       </c>
       <c r="K48">
         <v>634.7377976190487</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>300.0279701560933</v>
+        <v>302.5389392101767</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1.215232188064829</v>
+        <v>1.205913982027042</v>
       </c>
       <c r="K49">
         <v>635.9072023809533</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>294.0623091681008</v>
+        <v>297.1065643792753</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1.196478138876149</v>
+        <v>1.186104288450799</v>
       </c>
       <c r="K50">
         <v>639.7928571428527</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>294.8693479165393</v>
+        <v>297.8761311201199</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.196515402486627</v>
+        <v>1.186236121900305</v>
       </c>
       <c r="K51">
         <v>640.2498809523836</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>297.6829333897605</v>
+        <v>300.5654518600884</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1.196189697478584</v>
+        <v>1.186230277746333</v>
       </c>
       <c r="K52">
         <v>642.0238690476177</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>300.6284122642307</v>
+        <v>303.3297713316981</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1.199493558659148</v>
+        <v>1.189938179456746</v>
       </c>
       <c r="K53">
         <v>642.4335714285705</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>295.9172393335971</v>
+        <v>298.9629573529087</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1.190321612740279</v>
+        <v>1.180045239574914</v>
       </c>
       <c r="K54">
         <v>643.3258333333347</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>291.9318929749304</v>
+        <v>295.2598466776569</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1.18322284793853</v>
+        <v>1.172350213032297</v>
       </c>
       <c r="K55">
         <v>643.8235714285735</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>295.693017568018</v>
+        <v>298.7550294695823</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1.189892491493684</v>
+        <v>1.17958198318134</v>
       </c>
       <c r="K56">
         <v>643.3655952380892</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>288.2110681913665</v>
+        <v>291.7970054387773</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1.17699313687594</v>
+        <v>1.16557187099689</v>
       </c>
       <c r="K57">
         <v>644.1318452380974</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>292.2917188087198</v>
+        <v>295.7002287532363</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1.176405914817526</v>
+        <v>1.165446035382422</v>
       </c>
       <c r="K58">
         <v>646.7840476190461</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>290.2816753723309</v>
+        <v>293.8632323131583</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1.170708308193313</v>
+        <v>1.159409285800386</v>
       </c>
       <c r="K59">
         <v>647.9051785714304</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>297.6271462782673</v>
+        <v>300.9121268077429</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1.168132980254181</v>
+        <v>1.157625723009658</v>
       </c>
       <c r="K60">
         <v>653.3257142857127</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>292.9844894132821</v>
+        <v>296.6960294142884</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1.153338628323434</v>
+        <v>1.14202116139957</v>
       </c>
       <c r="K61">
         <v>656.6767261904786</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>293.595411527241</v>
+        <v>297.301940856813</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1.151804207530236</v>
+        <v>1.14052687972151</v>
       </c>
       <c r="K62">
         <v>657.6846428571457</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>294.4985856260408</v>
+        <v>298.1755352246576</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1.15104305281294</v>
+        <v>1.13985342407866</v>
       </c>
       <c r="K63">
         <v>658.5463095238056</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>296.2139448400401</v>
+        <v>299.7562415918564</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1.154912176135219</v>
+        <v>1.143990392069871</v>
       </c>
       <c r="K64">
         <v>657.9586904761936</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>297.8694877467428</v>
+        <v>301.3433588403944</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1.154473368335903</v>
+        <v>1.143729820749915</v>
       </c>
       <c r="K65">
         <v>659.1355357142886</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>296.7197783388944</v>
+        <v>300.3975079321062</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1.14424231068613</v>
+        <v>1.133172438806251</v>
       </c>
       <c r="K66">
         <v>662.7493452380933</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>298.95584466711</v>
+        <v>302.5956667201361</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1.140049325504407</v>
+        <v>1.129148259408786</v>
       </c>
       <c r="K67">
         <v>665.8838690476093</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>299.4616510953789</v>
+        <v>303.2921962745145</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1.125997087762604</v>
+        <v>1.114879311054448</v>
       </c>
       <c r="K68">
         <v>672.2415476190481</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>300.0409409312644</v>
+        <v>303.816832759584</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1.127868605746395</v>
+        <v>1.116851082266285</v>
       </c>
       <c r="K69">
         <v>671.7829166666627</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>299.2271879419739</v>
+        <v>303.0316541262117</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>1.128388104513452</v>
+        <v>1.117290889578087</v>
       </c>
       <c r="K70">
         <v>671.0610714285701</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>301.2504472634298</v>
+        <v>304.9957786298872</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1.126322209947712</v>
+        <v>1.115407638184074</v>
       </c>
       <c r="K71">
         <v>673.1933928571442</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>308.996882719699</v>
+        <v>312.3917909613136</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1.126515264902474</v>
+        <v>1.116449877954297</v>
       </c>
       <c r="K72">
         <v>677.8425000000002</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>302.4272323060595</v>
+        <v>306.2654829203561</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1.116898346896022</v>
+        <v>1.105927888376684</v>
       </c>
       <c r="K73">
         <v>678.0420238095214</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>303.2820696952102</v>
+        <v>307.0127001970619</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1.121368807734769</v>
+        <v>1.11057950393814</v>
       </c>
       <c r="K74">
         <v>676.6008333333358</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>304.0147413682805</v>
+        <v>307.7187170313032</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1.120971442773237</v>
+        <v>1.11025419753442</v>
       </c>
       <c r="K75">
         <v>677.224464285714</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>309.111639248138</v>
+        <v>312.6285558089494</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1.118331748927766</v>
+        <v>1.108114237294693</v>
       </c>
       <c r="K76">
         <v>681.5165476190492</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>317.1676979074927</v>
+        <v>320.3160333609119</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1.118850316031169</v>
+        <v>1.10950552855451</v>
       </c>
       <c r="K77">
         <v>686.2338095238056</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>312.4851129405634</v>
+        <v>316.0198774571945</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1.10763468071939</v>
+        <v>1.097562029670316</v>
       </c>
       <c r="K78">
         <v>688.3722619047677</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>317.0369165327721</v>
+        <v>320.3527421843614</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1.108637232935541</v>
+        <v>1.099067547434522</v>
       </c>
       <c r="K79">
         <v>690.7347619047588</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>323.9528489777254</v>
+        <v>326.5502942051662</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1.134642288489892</v>
+        <v>1.126347925964256</v>
       </c>
       <c r="K80">
         <v>683.3917261904793</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>323.347947645525</v>
+        <v>326.3751827841597</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1.109080773958148</v>
+        <v>1.100183054070231</v>
       </c>
       <c r="K81">
         <v>694.4345238095239</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>327.6806773234799</v>
+        <v>330.4375318630325</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1.113892457374362</v>
+        <v>1.105548389034823</v>
       </c>
       <c r="K82">
         <v>694.9266666666649</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>324.5129412025499</v>
+        <v>327.856057503142</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1.086471618450102</v>
+        <v>1.077216749159089</v>
       </c>
       <c r="K83">
         <v>705.5802976190434</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>332.5749770158795</v>
+        <v>335.4618772221595</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1.092460611673128</v>
+        <v>1.084157702364706</v>
       </c>
       <c r="K84">
         <v>707.8250000000033</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>333.7159530910034</v>
+        <v>336.4433439716308</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1.099081536774818</v>
+        <v>1.09103875667201</v>
       </c>
       <c r="K85">
         <v>705.4517261904742</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>337.4825581216657</v>
+        <v>339.9109838390703</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1.107127283259973</v>
+        <v>1.099644281031059</v>
       </c>
       <c r="K86">
         <v>704.0680952380922</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>350.5101283558679</v>
+        <v>352.1576541792306</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1.119396432107758</v>
+        <v>1.113504652997706</v>
       </c>
       <c r="K87">
         <v>706.4569642857172</v>
@@ -4300,7 +4300,7 @@
         <v>59379.93119047619</v>
       </c>
       <c r="E88">
-        <v>342.6776038729953</v>
+        <v>344.9138394533932</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4309,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>173.2822061300622</v>
+        <v>172.1587376272849</v>
       </c>
       <c r="I88">
         <v>79.93855176142846</v>
       </c>
       <c r="J88">
-        <v>52.60427076476424</v>
+        <v>52.60203458350381</v>
       </c>
       <c r="K88">
         <v>708.3994940476148</v>
@@ -4341,7 +4341,7 @@
         <v>350.1592113095269</v>
       </c>
       <c r="E89">
-        <v>356.363928722754</v>
+        <v>357.7278282898849</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4350,13 +4350,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0.9825888174612245</v>
+        <v>0.9788425266870077</v>
       </c>
       <c r="I89">
         <v>1.653272986153231</v>
       </c>
       <c r="J89">
-        <v>2.118327584851057</v>
+        <v>2.11377080788933</v>
       </c>
       <c r="K89">
         <v>709.4367857142961</v>
@@ -4382,7 +4382,7 @@
         <v>352.367589285708</v>
       </c>
       <c r="E90">
-        <v>359.5868806517844</v>
+        <v>360.8195919740686</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4391,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0.9799233738645003</v>
+        <v>0.9765755439106866</v>
       </c>
       <c r="I90">
         <v>1.403326608327421</v>
       </c>
       <c r="J90">
-        <v>1.866510522108002</v>
+        <v>1.862212863728924</v>
       </c>
       <c r="K90">
         <v>711.7850892857116</v>
@@ -4423,7 +4423,7 @@
         <v>347.62608630953</v>
       </c>
       <c r="E91">
-        <v>347.391089117311</v>
+        <v>349.1539166691754</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4432,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1.000676462924873</v>
+        <v>0.9956241924071183</v>
       </c>
       <c r="I91">
         <v>1.658512586687475</v>
       </c>
       <c r="J91">
-        <v>2.11990358912834</v>
+        <v>2.114584633200574</v>
       </c>
       <c r="K91">
         <v>703.8539880952366</v>
@@ -4464,7 +4464,7 @@
         <v>347.8779910714255</v>
       </c>
       <c r="E92">
-        <v>341.9593327817559</v>
+        <v>343.9345872273904</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4473,13 +4473,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1.017308076494134</v>
+        <v>1.011465563483523</v>
       </c>
       <c r="I92">
         <v>1.646234175047304</v>
       </c>
       <c r="J92">
-        <v>2.107175413237095</v>
+        <v>2.101426689013684</v>
       </c>
       <c r="K92">
         <v>699.6505952380942</v>
@@ -4505,7 +4505,7 @@
         <v>352.8262797619017</v>
       </c>
       <c r="E93">
-        <v>348.0909816004843</v>
+        <v>349.7925639555385</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1.013603622075025</v>
+        <v>1.00867289965246</v>
       </c>
       <c r="I93">
         <v>1.659368056069076</v>
       </c>
       <c r="J93">
-        <v>2.116937893770051</v>
+        <v>2.111722248258395</v>
       </c>
       <c r="K93">
         <v>703.4355357142853</v>
@@ -4546,7 +4546,7 @@
         <v>359.1026636904793</v>
       </c>
       <c r="E94">
-        <v>350.0792095194931</v>
+        <v>351.6965892313417</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4555,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>1.025775464310981</v>
+        <v>1.021058135580229</v>
       </c>
       <c r="I94">
         <v>1.666032369484896</v>
       </c>
       <c r="J94">
-        <v>2.116222850189923</v>
+        <v>2.111173361093852</v>
       </c>
       <c r="K94">
         <v>704.7914285714339</v>
@@ -4587,7 +4587,7 @@
         <v>347.450505952384</v>
       </c>
       <c r="E95">
-        <v>337.5723949503299</v>
+        <v>339.8636792152839</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4596,13 +4596,13 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1.029262200197109</v>
+        <v>1.022323146605773</v>
       </c>
       <c r="I95">
         <v>1.649377423514526</v>
       </c>
       <c r="J95">
-        <v>2.103041638888077</v>
+        <v>2.09677332684251</v>
       </c>
       <c r="K95">
         <v>700.3502380952372</v>
@@ -4628,7 +4628,7 @@
         <v>349.8058333333271</v>
       </c>
       <c r="E96">
-        <v>345.9811424941003</v>
+        <v>347.9033250382988</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1.011054622259628</v>
+        <v>1.005468497016575</v>
       </c>
       <c r="I96">
         <v>1.650350590348997</v>
       </c>
       <c r="J96">
-        <v>2.105729232646411</v>
+        <v>2.100189220128671</v>
       </c>
       <c r="K96">
         <v>705.7166071428496</v>
@@ -4669,7 +4669,7 @@
         <v>341.9181547619048</v>
       </c>
       <c r="E97">
-        <v>344.4437017724562</v>
+        <v>346.4225067611181</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4678,13 +4678,13 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0.992667750934172</v>
+        <v>0.9869975191816294</v>
       </c>
       <c r="I97">
         <v>1.645263104631812</v>
       </c>
       <c r="J97">
-        <v>2.105272469516116</v>
+        <v>2.09964310296672</v>
       </c>
       <c r="K97">
         <v>704.4275297619114</v>
@@ -4710,7 +4710,7 @@
         <v>337.2611607142857</v>
       </c>
       <c r="E98">
-        <v>328.759729410152</v>
+        <v>331.7487630585268</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4719,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1.02585910178046</v>
+        <v>1.016616181489082</v>
       </c>
       <c r="I98">
         <v>1.625824353312533</v>
       </c>
       <c r="J98">
-        <v>2.079335382013782</v>
+        <v>2.071982436282431</v>
       </c>
       <c r="K98">
         <v>703.5383333333358</v>
@@ -4751,7 +4751,7 @@
         <v>344.8362946428603</v>
       </c>
       <c r="E99">
-        <v>332.2317974751926</v>
+        <v>335.0417854123599</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4760,13 +4760,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>1.0379388645622</v>
+        <v>1.029233694592588</v>
       </c>
       <c r="I99">
         <v>1.657947867151835</v>
       </c>
       <c r="J99">
-        <v>2.100558457194828</v>
+        <v>2.093537511726722</v>
       </c>
       <c r="K99">
         <v>704.999136904759</v>
@@ -4792,7 +4792,7 @@
         <v>352.6383928571428</v>
       </c>
       <c r="E100">
-        <v>343.2716997965677</v>
+        <v>345.2898197537461</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4801,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>1.027286528618951</v>
+        <v>1.021282333515183</v>
       </c>
       <c r="I100">
         <v>1.642095441717153</v>
       </c>
       <c r="J100">
-        <v>2.086947116198142</v>
+        <v>2.081239245951143</v>
       </c>
       <c r="K100">
         <v>703.3357738095247</v>
@@ -4833,7 +4833,7 @@
         <v>338.8995684523778</v>
       </c>
       <c r="E101">
-        <v>329.5242968918932</v>
+        <v>332.4632062905496</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>1.028450926529282</v>
+        <v>1.019359622478655</v>
       </c>
       <c r="I101">
         <v>1.645126608450562</v>
       </c>
       <c r="J101">
-        <v>2.092952972532819</v>
+        <v>2.085716358783104</v>
       </c>
       <c r="K101">
         <v>703.5568154761845</v>
@@ -4874,7 +4874,7 @@
         <v>340.5129910714348</v>
       </c>
       <c r="E102">
-        <v>327.3418650448265</v>
+        <v>330.4054673198451</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4883,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1.040236607147102</v>
+        <v>1.030591272697692</v>
       </c>
       <c r="I102">
         <v>1.633026035482704</v>
       </c>
       <c r="J102">
-        <v>2.078789640433329</v>
+        <v>2.071336558166701</v>
       </c>
       <c r="K102">
         <v>702.9829761904742</v>
@@ -4915,7 +4915,7 @@
         <v>344.972113095235</v>
       </c>
       <c r="E103">
-        <v>332.1234061416002</v>
+        <v>334.8783273710321</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4924,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>1.038686544567584</v>
+        <v>1.030141651158629</v>
       </c>
       <c r="I103">
         <v>1.657786306016229</v>
       </c>
       <c r="J103">
-        <v>2.099391510047039</v>
+        <v>2.092476868783455</v>
       </c>
       <c r="K103">
         <v>703.2343750000056</v>
@@ -4956,7 +4956,7 @@
         <v>327.5137500000031</v>
       </c>
       <c r="E104">
-        <v>328.8004951757807</v>
+        <v>331.7741775550977</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4965,13 +4965,13 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0.9960865473298945</v>
+        <v>0.9871586523505522</v>
       </c>
       <c r="I104">
         <v>1.624738984618187</v>
       </c>
       <c r="J104">
-        <v>2.08405406412352</v>
+        <v>2.076766406570719</v>
       </c>
       <c r="K104">
         <v>703.1799702380862</v>
@@ -4997,7 +4997,7 @@
         <v>327.980669642854</v>
       </c>
       <c r="E105">
-        <v>318.2984936466595</v>
+        <v>321.90708999315</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -5006,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>1.030418541681641</v>
+        <v>1.018867492635323</v>
       </c>
       <c r="I105">
         <v>1.629371329948373</v>
       </c>
       <c r="J105">
-        <v>2.078794203121543</v>
+        <v>2.07041580388426</v>
       </c>
       <c r="K105">
         <v>701.4073214285808</v>
@@ -5038,7 +5038,7 @@
         <v>327.2403422619017</v>
       </c>
       <c r="E106">
-        <v>324.2403838844592</v>
+        <v>327.5252514048695</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5047,13 +5047,13 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>1.009252266301632</v>
+        <v>0.9991301154895821</v>
       </c>
       <c r="I106">
         <v>1.60366987030945</v>
       </c>
       <c r="J106">
-        <v>2.05595670531839</v>
+        <v>2.048212401962259</v>
       </c>
       <c r="K106">
         <v>703.4163392857105</v>
@@ -5079,7 +5079,7 @@
         <v>313.1763303571469</v>
       </c>
       <c r="E107">
-        <v>318.3163805575387</v>
+        <v>322.1644627709879</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -5088,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0.9838523855059271</v>
+        <v>0.972100794927744</v>
       </c>
       <c r="I107">
         <v>1.4486988534195</v>
       </c>
       <c r="J107">
-        <v>1.902980948971231</v>
+        <v>1.89441692906742</v>
       </c>
       <c r="K107">
         <v>708.228660714286</v>
@@ -5120,7 +5120,7 @@
         <v>296.192434523809</v>
       </c>
       <c r="E108">
-        <v>316.9431605972082</v>
+        <v>320.9049261277937</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -5129,13 +5129,13 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>0.9345285569996237</v>
+        <v>0.9229912363696672</v>
       </c>
       <c r="I108">
         <v>1.57827017453284</v>
       </c>
       <c r="J108">
-        <v>2.051892879895112</v>
+        <v>2.043160812996213</v>
       </c>
       <c r="K108">
         <v>708.865952380955</v>
@@ -5161,7 +5161,7 @@
         <v>328.314136904753</v>
       </c>
       <c r="E109">
-        <v>319.1583671364614</v>
+        <v>323.006420587541</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -5170,13 +5170,13 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>1.028687230889287</v>
+        <v>1.016432231618051</v>
       </c>
       <c r="I109">
         <v>1.613777734208184</v>
       </c>
       <c r="J109">
-        <v>2.045806677149652</v>
+        <v>2.037325608336981</v>
       </c>
       <c r="K109">
         <v>709.8127083333342</v>
@@ -5202,7 +5202,7 @@
         <v>315.0521547619165</v>
       </c>
       <c r="E110">
-        <v>320.3991675930314</v>
+        <v>324.2116809273909</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5211,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>0.9833114022383895</v>
+        <v>0.9717483153621298</v>
       </c>
       <c r="I110">
         <v>1.588506116140708</v>
       </c>
       <c r="J110">
-        <v>2.033694460181635</v>
+        <v>2.02534891521935</v>
       </c>
       <c r="K110">
         <v>711.1409523809617</v>
@@ -5243,7 +5243,7 @@
         <v>333.372833333333</v>
       </c>
       <c r="E111">
-        <v>330.6541648853816</v>
+        <v>333.8503891685264</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -5252,13 +5252,13 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1.008222090439701</v>
+        <v>0.9985695513598687</v>
       </c>
       <c r="I111">
         <v>1.611013673542487</v>
       </c>
       <c r="J111">
-        <v>2.04015197642929</v>
+        <v>2.032860864701044</v>
       </c>
       <c r="K111">
         <v>712.9765476190396</v>
@@ -5284,7 +5284,7 @@
         <v>321.7775000000062</v>
       </c>
       <c r="E112">
-        <v>320.8217009204538</v>
+        <v>324.6723916890105</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -5293,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>1.002979222031459</v>
+        <v>0.9910836530511744</v>
       </c>
       <c r="I112">
         <v>1.583614779837349</v>
       </c>
       <c r="J112">
-        <v>2.018496180467109</v>
+        <v>2.010148453694814</v>
       </c>
       <c r="K112">
         <v>713.0183333333449</v>
@@ -5325,7 +5325,7 @@
         <v>319.2551845238056</v>
       </c>
       <c r="E113">
-        <v>324.1983802618852</v>
+        <v>327.9181731509584</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5334,13 +5334,13 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0.9847525588064737</v>
+        <v>0.9735818587182579</v>
       </c>
       <c r="I113">
         <v>1.58686138215108</v>
       </c>
       <c r="J113">
-        <v>2.022548463588246</v>
+        <v>2.014478704038421</v>
       </c>
       <c r="K113">
         <v>715.6642261904642</v>
@@ -5366,7 +5366,7 @@
         <v>300.9146130952341</v>
       </c>
       <c r="E114">
-        <v>317.8251821676986</v>
+        <v>321.8990227058842</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5375,13 +5375,13 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0.9467928596559673</v>
+        <v>0.934810583038572</v>
       </c>
       <c r="I114">
         <v>1.562208028251417</v>
       </c>
       <c r="J114">
-        <v>2.012922907945707</v>
+        <v>2.004263468612721</v>
       </c>
       <c r="K114">
         <v>713.702678571433</v>
@@ -5407,7 +5407,7 @@
         <v>297.2604880952387</v>
       </c>
       <c r="E115">
-        <v>319.0074750676152</v>
+        <v>323.0738810372299</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -5416,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0.9318292244789338</v>
+        <v>0.9201006504793355</v>
       </c>
       <c r="I115">
         <v>1.551362076761023</v>
       </c>
       <c r="J115">
-        <v>1.999299320210596</v>
+        <v>1.990787908997581</v>
       </c>
       <c r="K115">
         <v>715.7173809523783</v>
@@ -5448,7 +5448,7 @@
         <v>280.9881250000049</v>
       </c>
       <c r="E116">
-        <v>320.4481918322852</v>
+        <v>324.4950075768013</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -5457,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0.8768597613029042</v>
+        <v>0.8659243391703052</v>
       </c>
       <c r="I116">
         <v>1.535233568573125</v>
       </c>
       <c r="J116">
-        <v>1.996075775530909</v>
+        <v>1.987699545012198</v>
       </c>
       <c r="K116">
         <v>717.8739880952386</v>
@@ -5489,7 +5489,7 @@
         <v>280.314363095233</v>
       </c>
       <c r="E117">
-        <v>322.8997032411575</v>
+        <v>326.8377215099676</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -5498,13 +5498,13 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0.8681158894899337</v>
+        <v>0.8576560924491828</v>
       </c>
       <c r="I117">
         <v>1.52760795990626</v>
       </c>
       <c r="J117">
-        <v>1.990392150061574</v>
+        <v>1.982211921885052</v>
       </c>
       <c r="K117">
         <v>719.4048313492067</v>
@@ -5530,7 +5530,7 @@
         <v>311.8272738095284</v>
       </c>
       <c r="E118">
-        <v>324.8716336156269</v>
+        <v>328.7242312296929</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -5539,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0.9598476491747755</v>
+        <v>0.9485983818200556</v>
       </c>
       <c r="I118">
         <v>1.564930205917787</v>
       </c>
       <c r="J118">
-        <v>1.98931568835949</v>
+        <v>1.981311495958387</v>
       </c>
       <c r="K118">
         <v>720.695525793647</v>
@@ -5571,7 +5571,7 @@
         <v>302.8958749999957</v>
       </c>
       <c r="E119">
-        <v>323.0531116855122</v>
+        <v>327.1159883088677</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5580,13 +5580,13 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>0.9376039544075362</v>
+        <v>0.925958637992335</v>
       </c>
       <c r="I119">
         <v>1.556000513929102</v>
       </c>
       <c r="J119">
-        <v>1.984957846751459</v>
+        <v>1.976690751771323</v>
       </c>
       <c r="K119">
         <v>723.2324107142742</v>
@@ -5612,7 +5612,7 @@
         <v>298.428083333342</v>
       </c>
       <c r="E120">
-        <v>323.0241679518809</v>
+        <v>327.1204395949196</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -5621,13 +5621,13 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0.9238568285014426</v>
+        <v>0.9122880970167809</v>
       </c>
       <c r="I120">
         <v>1.549627590484169</v>
       </c>
       <c r="J120">
-        <v>1.985134950072747</v>
+        <v>1.976825550450161</v>
       </c>
       <c r="K120">
         <v>724.1244345238277</v>
@@ -5653,7 +5653,7 @@
         <v>309.8839226190356</v>
       </c>
       <c r="E121">
-        <v>326.6134075355772</v>
+        <v>330.6259691387496</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -5662,13 +5662,13 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0.948778940084634</v>
+        <v>0.9372643154022501</v>
       </c>
       <c r="I121">
         <v>1.555049049566865</v>
       </c>
       <c r="J121">
-        <v>1.973891407966333</v>
+        <v>1.965830063017855</v>
       </c>
       <c r="K121">
         <v>728.5078571428478</v>
@@ -5694,7 +5694,7 @@
         <v>297.8849226190442</v>
       </c>
       <c r="E122">
-        <v>326.3835466605628</v>
+        <v>330.5558702095133</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -5703,13 +5703,13 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0.9126836376002833</v>
+        <v>0.9011636139761743</v>
       </c>
       <c r="I122">
         <v>1.542366982044788</v>
       </c>
       <c r="J122">
-        <v>1.969692174551026</v>
+        <v>1.961473250549161</v>
       </c>
       <c r="K122">
         <v>732.6032738095216</v>
@@ -5735,7 +5735,7 @@
         <v>311.5794464285774</v>
       </c>
       <c r="E123">
-        <v>327.1153305210601</v>
+        <v>331.2357640142251</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -5744,13 +5744,13 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>0.9525064017399133</v>
+        <v>0.9406576229950715</v>
       </c>
       <c r="I123">
         <v>1.563679438883223</v>
       </c>
       <c r="J123">
-        <v>1.96770344949796</v>
+        <v>1.959566376104795</v>
       </c>
       <c r="K123">
         <v>732.5100000000093</v>
@@ -5776,7 +5776,7 @@
         <v>316.8316249999972</v>
       </c>
       <c r="E124">
-        <v>330.7538721918543</v>
+        <v>334.6622838616187</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -5785,13 +5785,13 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0.957907530758154</v>
+        <v>0.9467204411089408</v>
       </c>
       <c r="I124">
         <v>1.585633447330823</v>
       </c>
       <c r="J124">
-        <v>1.950640530783902</v>
+        <v>1.943001498426985</v>
       </c>
       <c r="K124">
         <v>733.3495238095168</v>
@@ -5817,7 +5817,7 @@
         <v>317.246410714285</v>
       </c>
       <c r="E125">
-        <v>329.9992227675506</v>
+        <v>333.9117431217382</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -5826,13 +5826,13 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0.9613550239715304</v>
+        <v>0.9500906070219359</v>
       </c>
       <c r="I125">
         <v>1.641869691480086</v>
       </c>
       <c r="J125">
-        <v>1.836804492611161</v>
+        <v>1.830119672541551</v>
       </c>
       <c r="K125">
         <v>732.0455059523783</v>
@@ -5858,7 +5858,7 @@
         <v>327.6696904761983</v>
       </c>
       <c r="E126">
-        <v>331.3256127419463</v>
+        <v>335.1560682994927</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5867,13 +5867,13 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>0.9889657722640496</v>
+        <v>0.9776630097695123</v>
       </c>
       <c r="I126">
         <v>1.728749550301856</v>
       </c>
       <c r="J126">
-        <v>1.772418631914998</v>
+        <v>1.76638206561486</v>
       </c>
       <c r="K126">
         <v>732.2162202380908</v>
@@ -5899,7 +5899,7 @@
         <v>321.2072738095164</v>
       </c>
       <c r="E127">
-        <v>333.179939693961</v>
+        <v>336.9656402681404</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5908,13 +5908,13 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0.9640654659597996</v>
+        <v>0.9532345005678199</v>
       </c>
       <c r="I127">
         <v>1.763003220665465</v>
       </c>
       <c r="J127">
-        <v>1.769646739331372</v>
+        <v>1.763701089655336</v>
       </c>
       <c r="K127">
         <v>734.4381250000138</v>
@@ -5940,7 +5940,7 @@
         <v>333.6850000000005</v>
       </c>
       <c r="E128">
-        <v>338.6775050141709</v>
+        <v>342.1615569825292</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5949,13 +5949,13 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>0.9852588230979157</v>
+        <v>0.9752264484143623</v>
       </c>
       <c r="I128">
         <v>1.818990045552791</v>
       </c>
       <c r="J128">
-        <v>1.768348379312767</v>
+        <v>1.762806271119441</v>
       </c>
       <c r="K128">
         <v>736.2366071428461</v>
@@ -5981,7 +5981,7 @@
         <v>330.3836369047584</v>
       </c>
       <c r="E129">
-        <v>338.6319912240181</v>
+        <v>342.141288559965</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5990,13 +5990,13 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0.9756421291164926</v>
+        <v>0.9656350985737698</v>
       </c>
       <c r="I129">
         <v>1.74039354200692</v>
       </c>
       <c r="J129">
-        <v>1.761480022773561</v>
+        <v>1.755918851763384</v>
       </c>
       <c r="K129">
         <v>736.8664583333302</v>
@@ -6022,7 +6022,7 @@
         <v>337.9635833333402</v>
       </c>
       <c r="E130">
-        <v>338.8002251089135</v>
+        <v>342.4400865847312</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -6031,13 +6031,13 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0.9975305749123857</v>
+        <v>0.9869276307688254</v>
       </c>
       <c r="I130">
         <v>1.750978894532601</v>
       </c>
       <c r="J130">
-        <v>1.760750699072403</v>
+        <v>1.755097883729975</v>
       </c>
       <c r="K130">
         <v>740.8836607142972</v>
@@ -6063,7 +6063,7 @@
         <v>357.9958869047529</v>
       </c>
       <c r="E131">
-        <v>346.0493972083822</v>
+        <v>349.2951255972595</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -6072,13 +6072,13 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>1.034522498211944</v>
+        <v>1.024909483900229</v>
       </c>
       <c r="I131">
         <v>1.782631247549346</v>
       </c>
       <c r="J131">
-        <v>1.76360279177989</v>
+        <v>1.758444498815142</v>
       </c>
       <c r="K131">
         <v>743.3579166666716</v>
@@ -6104,7 +6104,7 @@
         <v>336.5209285714331</v>
       </c>
       <c r="E132">
-        <v>338.1652703717173</v>
+        <v>341.9845849215733</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -6113,13 +6113,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0.9951374610453738</v>
+        <v>0.9840236765309371</v>
       </c>
       <c r="I132">
         <v>1.743283711313718</v>
       </c>
       <c r="J132">
-        <v>1.752246149414147</v>
+        <v>1.746438090921571</v>
       </c>
       <c r="K132">
         <v>744.7746726190338</v>
@@ -6145,7 +6145,7 @@
         <v>354.9591369047606</v>
       </c>
       <c r="E133">
-        <v>344.0894595118474</v>
+        <v>347.5220612878171</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>1.031589684288306</v>
+        <v>1.021400297838312</v>
       </c>
       <c r="I133">
         <v>1.761638881471288</v>
       </c>
       <c r="J133">
-        <v>1.750943389536128</v>
+        <v>1.745598655879586</v>
       </c>
       <c r="K133">
         <v>744.96523809525</v>
@@ -6186,7 +6186,7 @@
         <v>354.6724880952499</v>
       </c>
       <c r="E134">
-        <v>348.9452875394057</v>
+        <v>352.0572465927379</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -6195,13 +6195,13 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>1.01641288981499</v>
+        <v>1.007428455252158</v>
       </c>
       <c r="I134">
         <v>1.758748570972299</v>
       </c>
       <c r="J134">
-        <v>1.754984517362719</v>
+        <v>1.750019149463153</v>
       </c>
       <c r="K134">
         <v>745.0174404761998</v>
@@ -6227,7 +6227,7 @@
         <v>362.5472261904673</v>
       </c>
       <c r="E135">
-        <v>355.3043770897328</v>
+        <v>357.9524006773032</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6236,13 +6236,13 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>1.020384913802808</v>
+        <v>1.012836414854237</v>
       </c>
       <c r="I135">
         <v>1.766456888419981</v>
       </c>
       <c r="J135">
-        <v>1.770666220015825</v>
+        <v>1.766239747877939</v>
       </c>
       <c r="K135">
         <v>743.837916666653</v>
@@ -6268,7 +6268,7 @@
         <v>350.1742916666636</v>
       </c>
       <c r="E136">
-        <v>347.155700298951</v>
+        <v>350.5530393199876</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -6277,13 +6277,13 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>1.008695208994446</v>
+        <v>0.9989195710467704</v>
       </c>
       <c r="I136">
         <v>1.737417508616715</v>
       </c>
       <c r="J136">
-        <v>1.753861541422048</v>
+        <v>1.74863090909522</v>
       </c>
       <c r="K136">
         <v>749.7373511904761</v>
@@ -6309,7 +6309,7 @@
         <v>360.2934940476303</v>
       </c>
       <c r="E137">
-        <v>353.8642945878662</v>
+        <v>356.8707230003598</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6318,13 +6318,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>1.018168545281608</v>
+        <v>1.009591067091449</v>
       </c>
       <c r="I137">
         <v>1.75043757770163</v>
       </c>
       <c r="J137">
-        <v>1.758472687100096</v>
+        <v>1.753723667597997</v>
       </c>
       <c r="K137">
         <v>751.2854166666733</v>
@@ -6350,7 +6350,7 @@
         <v>362.2236845237979</v>
       </c>
       <c r="E138">
-        <v>358.963337549409</v>
+        <v>361.6303824520992</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6359,13 +6359,13 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>1.009082674004111</v>
+        <v>1.001640631154041</v>
       </c>
       <c r="I138">
         <v>1.757850798196975</v>
       </c>
       <c r="J138">
-        <v>1.759829931155242</v>
+        <v>1.755475851697613</v>
       </c>
       <c r="K138">
         <v>751.2642559523672</v>
@@ -6391,7 +6391,7 @@
         <v>372.7259285714411</v>
       </c>
       <c r="E139">
-        <v>377.5329601639772</v>
+        <v>378.9582763155438</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -6400,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0.9872672531944012</v>
+        <v>0.9835540001799215</v>
       </c>
       <c r="I139">
         <v>1.769604528136931</v>
       </c>
       <c r="J139">
-        <v>1.776458822178078</v>
+        <v>1.77354409226185</v>
       </c>
       <c r="K139">
         <v>751.0237500000125</v>
@@ -6432,7 +6432,7 @@
         <v>354.2106904761888</v>
       </c>
       <c r="E140">
-        <v>354.0041345046524</v>
+        <v>356.9806083357414</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -6441,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>1.000583484630273</v>
+        <v>0.992240704971438</v>
       </c>
       <c r="I140">
         <v>1.737820782444639</v>
       </c>
       <c r="J140">
-        <v>1.755842410441516</v>
+        <v>1.751127053399991</v>
       </c>
       <c r="K140">
         <v>750.6996428571265</v>
@@ -6473,7 +6473,7 @@
         <v>373.4404404761846</v>
       </c>
       <c r="E141">
-        <v>375.8509418067465</v>
+        <v>377.4462482669012</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -6482,13 +6482,13 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0.9935865497131006</v>
+        <v>0.9893870774736541</v>
       </c>
       <c r="I141">
         <v>1.764756881635319</v>
       </c>
       <c r="J141">
-        <v>1.772203950671333</v>
+        <v>1.769112432834477</v>
       </c>
       <c r="K141">
         <v>752.6756845238242</v>
@@ -6514,7 +6514,7 @@
         <v>378.6850833333364</v>
       </c>
       <c r="E142">
-        <v>381.2674039137822</v>
+        <v>382.5853797639842</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0.9932270093012469</v>
+        <v>0.9898054221699377</v>
       </c>
       <c r="I142">
         <v>1.775330081941916</v>
       </c>
       <c r="J142">
-        <v>1.771820272090461</v>
+        <v>1.769072233888126</v>
       </c>
       <c r="K142">
         <v>755.0107440476173</v>
@@ -6555,7 +6555,7 @@
         <v>373.7690416666724</v>
       </c>
       <c r="E143">
-        <v>378.4490929480078</v>
+        <v>380.0024595505411</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -6564,13 +6564,13 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0.9876336041794177</v>
+        <v>0.983596374899148</v>
       </c>
       <c r="I143">
         <v>1.772825401950741</v>
       </c>
       <c r="J143">
-        <v>1.769279126301923</v>
+        <v>1.766277561758957</v>
       </c>
       <c r="K143">
         <v>756.3774702380899</v>
@@ -6596,7 +6596,7 @@
         <v>372.9769999999885</v>
       </c>
       <c r="E144">
-        <v>378.4164404276137</v>
+        <v>380.0246115450622</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -6605,13 +6605,13 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0.9856257819520776</v>
+        <v>0.9814548549463147</v>
       </c>
       <c r="I144">
         <v>1.76023304811043</v>
       </c>
       <c r="J144">
-        <v>1.764378182462857</v>
+        <v>1.761333144247893</v>
       </c>
       <c r="K144">
         <v>757.8693154761901</v>
@@ -6637,22 +6637,22 @@
         <v>375.3591666666769</v>
       </c>
       <c r="E145">
-        <v>374.0721774672276</v>
+        <v>376.069839500328</v>
       </c>
       <c r="F145">
-        <v>1.286989199449238</v>
+        <v>-0.7106728336511878</v>
       </c>
       <c r="G145">
-        <v>1.286989199449238</v>
+        <v>-0.7106728336511878</v>
       </c>
       <c r="H145">
-        <v>1.003440483620469</v>
+        <v>0.9981102636824175</v>
       </c>
       <c r="I145">
         <v>1.761895831937071</v>
       </c>
       <c r="J145">
-        <v>1.752330060557685</v>
+        <v>1.748893971217276</v>
       </c>
       <c r="K145">
         <v>760.7313690476252</v>
@@ -6678,22 +6678,22 @@
         <v>371.6455892857076</v>
       </c>
       <c r="E146">
-        <v>375.0838594612203</v>
+        <v>377.2105285582696</v>
       </c>
       <c r="F146">
-        <v>-3.438270175512741</v>
+        <v>-5.564939272562015</v>
       </c>
       <c r="G146">
-        <v>-2.151280976063504</v>
+        <v>-6.275612106213202</v>
       </c>
       <c r="H146">
-        <v>0.9908333294307796</v>
+        <v>0.9852471263359703</v>
       </c>
       <c r="I146">
         <v>1.767121902576645</v>
       </c>
       <c r="J146">
-        <v>1.749731969160434</v>
+        <v>1.746206872834892</v>
       </c>
       <c r="K146">
         <v>766.2920535714366</v>
@@ -6719,22 +6719,22 @@
         <v>370.318107142856</v>
       </c>
       <c r="E147">
-        <v>383.479539205164</v>
+        <v>385.1301917109296</v>
       </c>
       <c r="F147">
-        <v>-13.16143206230805</v>
+        <v>-14.8120845680736</v>
       </c>
       <c r="G147">
-        <v>-15.31271303837156</v>
+        <v>-21.0876966742868</v>
       </c>
       <c r="H147">
-        <v>0.9656789196899848</v>
+        <v>0.9615400586947719</v>
       </c>
       <c r="I147">
         <v>1.753283856831114</v>
       </c>
       <c r="J147">
-        <v>1.751550753845956</v>
+        <v>1.748585108436891</v>
       </c>
       <c r="K147">
         <v>768.6035714285625</v>
@@ -6760,22 +6760,22 @@
         <v>371.2168214285768</v>
       </c>
       <c r="E148">
-        <v>376.3293078448498</v>
+        <v>378.5000692177537</v>
       </c>
       <c r="F148">
-        <v>-5.11248641627293</v>
+        <v>-7.283247789176869</v>
       </c>
       <c r="G148">
-        <v>-20.42519945464448</v>
+        <v>-28.37094446346367</v>
       </c>
       <c r="H148">
-        <v>0.9864148597791893</v>
+        <v>0.9807576051327305</v>
       </c>
       <c r="I148">
         <v>1.750782418300335</v>
       </c>
       <c r="J148">
-        <v>1.744497178409087</v>
+        <v>1.740959788056478</v>
       </c>
       <c r="K148">
         <v>769.8860416666694</v>
@@ -6801,22 +6801,22 @@
         <v>373.0416607142847</v>
       </c>
       <c r="E149">
-        <v>373.5258964097688</v>
+        <v>375.9570599074362</v>
       </c>
       <c r="F149">
-        <v>-0.4842356954840739</v>
+        <v>-2.915399193151529</v>
       </c>
       <c r="G149">
-        <v>-20.90943515012856</v>
+        <v>-31.2863436566152</v>
       </c>
       <c r="H149">
-        <v>0.9987036087721403</v>
+        <v>0.9922453931471075</v>
       </c>
       <c r="I149">
         <v>1.754076038613683</v>
       </c>
       <c r="J149">
-        <v>1.739804437716286</v>
+        <v>1.735996054374697</v>
       </c>
       <c r="K149">
         <v>771.9897023809497</v>
@@ -6842,22 +6842,22 @@
         <v>85.4309499999974</v>
       </c>
       <c r="E150">
-        <v>227.8615322471827</v>
+        <v>230.7844490922971</v>
       </c>
       <c r="F150">
-        <v>-142.4305822471853</v>
+        <v>-145.3534990922997</v>
       </c>
       <c r="G150">
-        <v>-163.3400173973139</v>
+        <v>-176.6398427489149</v>
       </c>
       <c r="H150">
-        <v>0.3749248464954693</v>
+        <v>0.3701763716576553</v>
       </c>
       <c r="I150">
         <v>0.7987803135479077</v>
       </c>
       <c r="J150">
-        <v>1.735515984150051</v>
+        <v>1.723333815909949</v>
       </c>
       <c r="K150">
         <v>511.7447500000242</v>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>1.690937323558878</v>
+        <v>1.682153446715254</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>1.658637597480684</v>
+        <v>1.650021507350382</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>1.598792345563564</v>
+        <v>1.590487132315091</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>1.526268408169003</v>
+        <v>1.518339933505345</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>1.502457331395169</v>
+        <v>1.494652547635356</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>1.488435298605302</v>
+        <v>1.480703354806739</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>1.486529327264506</v>
+        <v>1.47880728437551</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>1.482067336021914</v>
+        <v>1.474368471745753</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>1.475621932121636</v>
+        <v>1.467956549650673</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>1.460409393372748</v>
+        <v>1.452823035159507</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>1.443394100964083</v>
+        <v>1.435896131735397</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>1.442818415146656</v>
+        <v>1.435323436421077</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -7372,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>1.435057668572967</v>
+        <v>1.427603004435734</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>1.425944196665813</v>
+        <v>1.418536874090999</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>1.421702368303824</v>
+        <v>1.414317080666323</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>1.420863316114162</v>
+        <v>1.413482387083568</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>1.418578655263841</v>
+        <v>1.411209594313311</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>1.419007160395755</v>
+        <v>1.411635873498555</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>1.417592412157157</v>
+        <v>1.410228474423121</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>1.409883575846662</v>
+        <v>1.402559683043811</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>1.404964707008827</v>
+        <v>1.397666366151326</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>1.400293282717649</v>
+        <v>1.393019208410473</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>1.394109951014003</v>
+        <v>1.38686799713105</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <v>1.388632083698044</v>
+        <v>1.381418585578175</v>
       </c>
       <c r="K174">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>1.377646576071943</v>
+        <v>1.370490144139394</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>1.361735557288775</v>
+        <v>1.354661777993613</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <v>1.35699010860343</v>
+        <v>1.349940980391569</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <v>1.346611940827218</v>
+        <v>1.339616723867027</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>1.337656897881567</v>
+        <v>1.330708199496174</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>1.336436181645683</v>
+        <v>1.329493824489457</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>1.333128569357989</v>
+        <v>1.326203394186321</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>1.322082012951954</v>
+        <v>1.315214221096429</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <v>1.317136943675508</v>
+        <v>1.310294839868205</v>
       </c>
       <c r="K183">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>1.318221465347925</v>
+        <v>1.311373727798512</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <v>1.317033208422685</v>
+        <v>1.310191643486736</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>1.315193744722216</v>
+        <v>1.308361735209983</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>1.312541604619895</v>
+        <v>1.30572337212453</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>1.308908124345037</v>
+        <v>1.302108766613866</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>1.30763394516697</v>
+        <v>1.300841206387798</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="J190">
-        <v>1.300976244453302</v>
+        <v>1.294218090293155</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1.293335037814809</v>
+        <v>1.286616577271399</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>1.28507077757013</v>
+        <v>1.27839524720703</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>1.280324968733842</v>
+        <v>1.273674091324912</v>
       </c>
       <c r="K193">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>1.264617438988642</v>
+        <v>1.257755828370551</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -8684,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>1.245441879134257</v>
+        <v>1.236826758740795</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>1.226412007772423</v>
+        <v>1.217668435593362</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>1.213619328318194</v>
+        <v>1.2039072889516</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>1.215232188064829</v>
+        <v>1.205913982027042</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>1.196478138876149</v>
+        <v>1.186104288450799</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -8889,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <v>1.196515402486627</v>
+        <v>1.186236121900305</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>1.196189697478584</v>
+        <v>1.186230277746333</v>
       </c>
       <c r="K201">
         <v>0</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <v>1.199493558659148</v>
+        <v>1.189938179456746</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="J203">
-        <v>1.190321612740279</v>
+        <v>1.180045239574914</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <v>1.18322284793853</v>
+        <v>1.172350213032297</v>
       </c>
       <c r="K204">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="J205">
-        <v>1.189892491493684</v>
+        <v>1.17958198318134</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <v>1.17699313687594</v>
+        <v>1.16557187099689</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>1.176405914817526</v>
+        <v>1.165446035382422</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <v>1.170708308193313</v>
+        <v>1.159409285800386</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <v>1.168132980254181</v>
+        <v>1.157625723009658</v>
       </c>
       <c r="K209">
         <v>0</v>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <v>1.153338628323434</v>
+        <v>1.14202116139957</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="J211">
-        <v>1.151804207530236</v>
+        <v>1.14052687972151</v>
       </c>
       <c r="K211">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>1.15104305281294</v>
+        <v>1.13985342407866</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="J213">
-        <v>1.154912176135219</v>
+        <v>1.143990392069871</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="J214">
-        <v>1.154473368335903</v>
+        <v>1.143729820749915</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="J215">
-        <v>1.14424231068613</v>
+        <v>1.133172438806251</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <v>1.140049325504407</v>
+        <v>1.129148259408786</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>1.125997087762604</v>
+        <v>1.114879311054448</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <v>1.127868605746395</v>
+        <v>1.116851082266285</v>
       </c>
       <c r="K218">
         <v>0</v>
@@ -9668,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="J219">
-        <v>1.128388104513452</v>
+        <v>1.117290889578087</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J220">
-        <v>1.126322209947712</v>
+        <v>1.115407638184074</v>
       </c>
       <c r="K220">
         <v>0</v>
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <v>1.126515264902474</v>
+        <v>1.116449877954297</v>
       </c>
       <c r="K221">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="J222">
-        <v>1.116898346896022</v>
+        <v>1.105927888376684</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="J223">
-        <v>1.121368807734769</v>
+        <v>1.11057950393814</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <v>1.120971442773237</v>
+        <v>1.11025419753442</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="J225">
-        <v>1.118331748927766</v>
+        <v>1.108114237294693</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -9955,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <v>1.118850316031169</v>
+        <v>1.10950552855451</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <v>1.10763468071939</v>
+        <v>1.097562029670316</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="J228">
-        <v>1.108637232935541</v>
+        <v>1.099067547434522</v>
       </c>
       <c r="K228">
         <v>0</v>
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -10093,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="J229">
-        <v>1.134642288489892</v>
+        <v>1.126347925964256</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -10134,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <v>1.109080773958148</v>
+        <v>1.100183054070231</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>1.113892457374362</v>
+        <v>1.105548389034823</v>
       </c>
       <c r="K231">
         <v>0</v>
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="J232">
-        <v>1.086471618450102</v>
+        <v>1.077216749159089</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -10257,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="J233">
-        <v>1.092460611673128</v>
+        <v>1.084157702364706</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <v>1.099081536774818</v>
+        <v>1.09103875667201</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <v>1.107127283259973</v>
+        <v>1.099644281031059</v>
       </c>
       <c r="K235">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="J236">
-        <v>1.119396432107758</v>
+        <v>1.113504652997706</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>2111.483047619048</v>
       </c>
       <c r="E237">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -10415,13 +10415,13 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>4.995622764654651</v>
+        <v>5.091737126974095</v>
       </c>
       <c r="I237">
         <v>79.93855176142846</v>
       </c>
       <c r="J237">
-        <v>52.60427076476424</v>
+        <v>52.60203458350381</v>
       </c>
       <c r="K237">
         <v>1512.578357514881</v>
@@ -10447,7 +10447,7 @@
         <v>62.85343452380975</v>
       </c>
       <c r="E238">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -10456,13 +10456,13 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>0.148706876286759</v>
+        <v>0.1515679543265069</v>
       </c>
       <c r="I238">
         <v>1.653272986153231</v>
       </c>
       <c r="J238">
-        <v>2.118327584851057</v>
+        <v>2.11377080788933</v>
       </c>
       <c r="K238">
         <v>112.1296270461309</v>
@@ -10488,7 +10488,7 @@
         <v>62.99555952380927</v>
       </c>
       <c r="E239">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -10497,13 +10497,13 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>0.1490431342009415</v>
+        <v>0.1519106817473994</v>
       </c>
       <c r="I239">
         <v>1.403326608327421</v>
       </c>
       <c r="J239">
-        <v>1.866510522108002</v>
+        <v>1.862212863728924</v>
       </c>
       <c r="K239">
         <v>112.4695870535714</v>
@@ -10529,7 +10529,7 @@
         <v>64.54848214285725</v>
       </c>
       <c r="E240">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -10538,13 +10538,13 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>0.1527172416469904</v>
+        <v>0.1556554779765904</v>
       </c>
       <c r="I240">
         <v>1.658512586687475</v>
       </c>
       <c r="J240">
-        <v>2.11990358912834</v>
+        <v>2.114584633200574</v>
       </c>
       <c r="K240">
         <v>112.7582542782738</v>
@@ -10570,7 +10570,7 @@
         <v>63.04249999999973</v>
       </c>
       <c r="E241">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -10579,13 +10579,13 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>0.1491541921190741</v>
+        <v>0.1520238763883161</v>
       </c>
       <c r="I241">
         <v>1.646234175047304</v>
       </c>
       <c r="J241">
-        <v>2.107175413237095</v>
+        <v>2.101426689013684</v>
       </c>
       <c r="K241">
         <v>113.1761067708333</v>
@@ -10611,7 +10611,7 @@
         <v>63.09436904761935</v>
       </c>
       <c r="E242">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -10620,13 +10620,13 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>0.1492769106961243</v>
+        <v>0.1521489560359142</v>
       </c>
       <c r="I242">
         <v>1.659368056069076</v>
       </c>
       <c r="J242">
-        <v>2.116937893770051</v>
+        <v>2.111722248258395</v>
       </c>
       <c r="K242">
         <v>113.6406482514881</v>
@@ -10652,7 +10652,7 @@
         <v>63.46622619047585</v>
       </c>
       <c r="E243">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>0.1501566989616035</v>
+        <v>0.1530456711776</v>
       </c>
       <c r="I243">
         <v>1.666032369484896</v>
       </c>
       <c r="J243">
-        <v>2.116222850189923</v>
+        <v>2.111173361093852</v>
       </c>
       <c r="K243">
         <v>113.8182431175595</v>
@@ -10693,7 +10693,7 @@
         <v>64.06560119047658</v>
       </c>
       <c r="E244">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -10702,13 +10702,13 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>0.1515747787316234</v>
+        <v>0.1544910343994005</v>
       </c>
       <c r="I244">
         <v>1.649377423514526</v>
       </c>
       <c r="J244">
-        <v>2.103041638888077</v>
+        <v>2.09677332684251</v>
       </c>
       <c r="K244">
         <v>114.4090169270833</v>
@@ -10734,7 +10734,7 @@
         <v>62.97941666666642</v>
       </c>
       <c r="E245">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>0.1490049413181143</v>
+        <v>0.1518717540443604</v>
       </c>
       <c r="I245">
         <v>1.650350590348997</v>
       </c>
       <c r="J245">
-        <v>2.105729232646411</v>
+        <v>2.100189220128671</v>
       </c>
       <c r="K245">
         <v>115.6866396949405</v>
@@ -10775,7 +10775,7 @@
         <v>64.87013690476202</v>
       </c>
       <c r="E246">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>0.1534782545534132</v>
+        <v>0.1564311325550656</v>
       </c>
       <c r="I246">
         <v>1.645263104631812</v>
       </c>
       <c r="J246">
-        <v>2.105272469516116</v>
+        <v>2.09964310296672</v>
       </c>
       <c r="K246">
         <v>119.7632068452381</v>
@@ -10816,7 +10816,7 @@
         <v>60.85498809523796</v>
       </c>
       <c r="E247">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>0.1439786903400266</v>
+        <v>0.1467487994258308</v>
       </c>
       <c r="I247">
         <v>1.625824353312533</v>
       </c>
       <c r="J247">
-        <v>2.079335382013782</v>
+        <v>2.071982436282431</v>
       </c>
       <c r="K247">
         <v>119.7096819196429</v>
@@ -10857,7 +10857,7 @@
         <v>64.13900595238131</v>
       </c>
       <c r="E248">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -10866,13 +10866,13 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>0.1517484493182846</v>
+        <v>0.1546680463587949</v>
       </c>
       <c r="I248">
         <v>1.657947867151835</v>
       </c>
       <c r="J248">
-        <v>2.100558457194828</v>
+        <v>2.093537511726722</v>
       </c>
       <c r="K248">
         <v>120.0169968377976</v>
@@ -10898,7 +10898,7 @@
         <v>66.09404166666631</v>
       </c>
       <c r="E249">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -10907,13 +10907,13 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>0.15637392851927</v>
+        <v>0.1593825184651233</v>
       </c>
       <c r="I249">
         <v>1.642095441717153</v>
       </c>
       <c r="J249">
-        <v>2.086947116198142</v>
+        <v>2.081239245951143</v>
       </c>
       <c r="K249">
         <v>120.6305106026786</v>
@@ -10939,7 +10939,7 @@
         <v>63.0128988095239</v>
       </c>
       <c r="E250">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -10948,13 +10948,13 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>0.1490841577509703</v>
+        <v>0.1519524945788725</v>
       </c>
       <c r="I250">
         <v>1.645126608450562</v>
       </c>
       <c r="J250">
-        <v>2.092952972532819</v>
+        <v>2.085716358783104</v>
       </c>
       <c r="K250">
         <v>123.2611607142857</v>
@@ -10980,7 +10980,7 @@
         <v>61.33116071428577</v>
       </c>
       <c r="E251">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -10989,13 +10989,13 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>0.145105281802981</v>
+        <v>0.147897066188374</v>
       </c>
       <c r="I251">
         <v>1.633026035482704</v>
       </c>
       <c r="J251">
-        <v>2.078789640433329</v>
+        <v>2.071336558166701</v>
       </c>
       <c r="K251">
         <v>123.7269810267857</v>
@@ -11021,7 +11021,7 @@
         <v>63.87226190476178</v>
       </c>
       <c r="E252">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -11030,13 +11030,13 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>0.1511173513617432</v>
+        <v>0.1540248062569171</v>
       </c>
       <c r="I252">
         <v>1.657786306016229</v>
       </c>
       <c r="J252">
-        <v>2.099391510047039</v>
+        <v>2.092476868783455</v>
       </c>
       <c r="K252">
         <v>125.4069242931548</v>
@@ -11062,7 +11062,7 @@
         <v>63.7935773809527</v>
       </c>
       <c r="E253">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -11071,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>0.1509311892238042</v>
+        <v>0.1538350624123483</v>
       </c>
       <c r="I253">
         <v>1.624738984618187</v>
       </c>
       <c r="J253">
-        <v>2.08405406412352</v>
+        <v>2.076766406570719</v>
       </c>
       <c r="K253">
         <v>124.9014834449405</v>
@@ -11103,7 +11103,7 @@
         <v>62.60941071428533</v>
       </c>
       <c r="E254">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -11112,13 +11112,13 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>0.1481295328411876</v>
+        <v>0.1509795029571141</v>
       </c>
       <c r="I254">
         <v>1.629371329948373</v>
       </c>
       <c r="J254">
-        <v>2.078794203121543</v>
+        <v>2.07041580388426</v>
       </c>
       <c r="K254">
         <v>126.0622209821429</v>
@@ -11144,7 +11144,7 @@
         <v>62.36583928571434</v>
       </c>
       <c r="E255">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>0.1475532596976448</v>
+        <v>0.1503921424820568</v>
       </c>
       <c r="I255">
         <v>1.60366987030945</v>
       </c>
       <c r="J255">
-        <v>2.05595670531839</v>
+        <v>2.048212401962259</v>
       </c>
       <c r="K255">
         <v>131.5408296130952</v>
@@ -11185,7 +11185,7 @@
         <v>63.8755178571432</v>
       </c>
       <c r="E256">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -11194,13 +11194,13 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>0.1511250547197482</v>
+        <v>0.1540326578253409</v>
       </c>
       <c r="I256">
         <v>1.4486988534195</v>
       </c>
       <c r="J256">
-        <v>1.902980948971231</v>
+        <v>1.89441692906742</v>
       </c>
       <c r="K256">
         <v>133.9066220238095</v>
@@ -11226,7 +11226,7 @@
         <v>62.37083928571415</v>
       </c>
       <c r="E257">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -11235,13 +11235,13 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>0.1475650893516174</v>
+        <v>0.15040419973521</v>
       </c>
       <c r="I257">
         <v>1.57827017453284</v>
       </c>
       <c r="J257">
-        <v>2.051892879895112</v>
+        <v>2.043160812996213</v>
       </c>
       <c r="K257">
         <v>134.6088169642857</v>
@@ -11267,7 +11267,7 @@
         <v>64.69234523809462</v>
       </c>
       <c r="E258">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -11276,13 +11276,13 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <v>0.1530576117742201</v>
+        <v>0.1560023967283405</v>
       </c>
       <c r="I258">
         <v>1.613777734208184</v>
       </c>
       <c r="J258">
-        <v>2.045806677149652</v>
+        <v>2.037325608336981</v>
       </c>
       <c r="K258">
         <v>139.0692429315476</v>
@@ -11308,7 +11308,7 @@
         <v>64.46373214285788</v>
       </c>
       <c r="E259">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -11317,13 +11317,13 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>0.1525167290121489</v>
+        <v>0.1554511075356368</v>
       </c>
       <c r="I259">
         <v>1.588506116140708</v>
       </c>
       <c r="J259">
-        <v>2.033694460181635</v>
+        <v>2.02534891521935</v>
       </c>
       <c r="K259">
         <v>144.3311011904762</v>
@@ -11349,7 +11349,7 @@
         <v>67.06832738095268</v>
       </c>
       <c r="E260">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -11358,13 +11358,13 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>0.1586790210934467</v>
+        <v>0.1617319603653584</v>
       </c>
       <c r="I260">
         <v>1.611013673542487</v>
       </c>
       <c r="J260">
-        <v>2.04015197642929</v>
+        <v>2.032860864701044</v>
       </c>
       <c r="K260">
         <v>146.5241350446429</v>
@@ -11390,7 +11390,7 @@
         <v>64.27066666666568</v>
       </c>
       <c r="E261">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -11399,13 +11399,13 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <v>0.1520599494566501</v>
+        <v>0.1549855396712994</v>
       </c>
       <c r="I261">
         <v>1.583614779837349</v>
       </c>
       <c r="J261">
-        <v>2.018496180467109</v>
+        <v>2.010148453694814</v>
       </c>
       <c r="K261">
         <v>146.8092447916667</v>
@@ -11431,7 +11431,7 @@
         <v>66.25099404761984</v>
       </c>
       <c r="E262">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -11440,13 +11440,13 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>0.1567452669906549</v>
+        <v>0.1597610013831695</v>
       </c>
       <c r="I262">
         <v>1.58686138215108</v>
       </c>
       <c r="J262">
-        <v>2.022548463588246</v>
+        <v>2.014478704038421</v>
       </c>
       <c r="K262">
         <v>148.5887276785714</v>
@@ -11472,7 +11472,7 @@
         <v>66.46007738095207</v>
       </c>
       <c r="E263">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -11481,13 +11481,13 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>0.157239943687625</v>
+        <v>0.1602651955192104</v>
       </c>
       <c r="I263">
         <v>1.562208028251417</v>
       </c>
       <c r="J263">
-        <v>2.012922907945707</v>
+        <v>2.004263468612721</v>
       </c>
       <c r="K263">
         <v>150.4246186755952</v>
@@ -11513,7 +11513,7 @@
         <v>67.44017857142829</v>
       </c>
       <c r="E264">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -11522,13 +11522,13 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>0.1595587952760046</v>
+        <v>0.1626286611531716</v>
       </c>
       <c r="I264">
         <v>1.551362076761023</v>
       </c>
       <c r="J264">
-        <v>1.999299320210596</v>
+        <v>1.990787908997581</v>
       </c>
       <c r="K264">
         <v>160.3400297619048</v>
@@ -11554,7 +11554,7 @@
         <v>68.79002380952409</v>
       </c>
       <c r="E265">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -11563,13 +11563,13 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>0.1627524356927704</v>
+        <v>0.1658837463039767</v>
       </c>
       <c r="I265">
         <v>1.535233568573125</v>
       </c>
       <c r="J265">
-        <v>1.996075775530909</v>
+        <v>1.987699545012198</v>
       </c>
       <c r="K265">
         <v>167.0179501488095</v>
@@ -11595,7 +11595,7 @@
         <v>68.8651726190472</v>
       </c>
       <c r="E266">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -11604,13 +11604,13 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <v>0.1629302325753993</v>
+        <v>0.1660649639481005</v>
       </c>
       <c r="I266">
         <v>1.52760795990626</v>
       </c>
       <c r="J266">
-        <v>1.990392150061574</v>
+        <v>1.982211921885052</v>
       </c>
       <c r="K266">
         <v>166.6835007440476</v>
@@ -11636,7 +11636,7 @@
         <v>71.27780952380965</v>
       </c>
       <c r="E267">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -11645,13 +11645,13 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <v>0.1686383645245845</v>
+        <v>0.1718829187338323</v>
       </c>
       <c r="I267">
         <v>1.564930205917787</v>
       </c>
       <c r="J267">
-        <v>1.98931568835949</v>
+        <v>1.981311495958387</v>
       </c>
       <c r="K267">
         <v>168.7393973214286</v>
@@ -11677,7 +11677,7 @@
         <v>71.34385714285739</v>
       </c>
       <c r="E268">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -11686,13 +11686,13 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>0.1687946286204001</v>
+        <v>0.1720421893064437</v>
       </c>
       <c r="I268">
         <v>1.556000513929102</v>
       </c>
       <c r="J268">
-        <v>1.984957846751459</v>
+        <v>1.976690751771323</v>
       </c>
       <c r="K268">
         <v>170.8916015625</v>
@@ -11718,7 +11718,7 @@
         <v>69.46953571428561</v>
       </c>
       <c r="E269">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -11727,13 +11727,13 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <v>0.1643601138335485</v>
+        <v>0.1675223557153081</v>
       </c>
       <c r="I269">
         <v>1.549627590484169</v>
       </c>
       <c r="J269">
-        <v>1.985134950072747</v>
+        <v>1.976825550450161</v>
       </c>
       <c r="K269">
         <v>170.1893601190476</v>
@@ -11759,7 +11759,7 @@
         <v>70.80644642857148</v>
       </c>
       <c r="E270">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -11768,13 +11768,13 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>0.1675231520621188</v>
+        <v>0.1707462499005135</v>
       </c>
       <c r="I270">
         <v>1.555049049566865</v>
       </c>
       <c r="J270">
-        <v>1.973891407966333</v>
+        <v>1.965830063017855</v>
       </c>
       <c r="K270">
         <v>174.5425967261905</v>
@@ -11800,7 +11800,7 @@
         <v>70.73022023809538</v>
       </c>
       <c r="E271">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -11809,13 +11809,13 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>0.1673428061707157</v>
+        <v>0.1705624342054111</v>
       </c>
       <c r="I271">
         <v>1.542366982044788</v>
       </c>
       <c r="J271">
-        <v>1.969692174551026</v>
+        <v>1.961473250549161</v>
       </c>
       <c r="K271">
         <v>176.2348400297619</v>
@@ -11841,7 +11841,7 @@
         <v>78.80073214285741</v>
       </c>
       <c r="E272">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F272">
         <v>0</v>
@@ -11850,13 +11850,13 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>0.1864370788144426</v>
+        <v>0.1900240752285301</v>
       </c>
       <c r="I272">
         <v>1.563679438883223</v>
       </c>
       <c r="J272">
-        <v>1.96770344949796</v>
+        <v>1.959566376104795</v>
       </c>
       <c r="K272">
         <v>176.6824776785714</v>
@@ -11882,7 +11882,7 @@
         <v>104.8973035714284</v>
       </c>
       <c r="E273">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -11891,13 +11891,13 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>0.248179760790986</v>
+        <v>0.2529546688600637</v>
       </c>
       <c r="I273">
         <v>1.585633447330823</v>
       </c>
       <c r="J273">
-        <v>1.950640530783902</v>
+        <v>1.943001498426985</v>
       </c>
       <c r="K273">
         <v>195.6017485119048</v>
@@ -11923,7 +11923,7 @@
         <v>235.9889880952382</v>
       </c>
       <c r="E274">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -11932,13 +11932,13 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>0.5583336141229044</v>
+        <v>0.5690757941895458</v>
       </c>
       <c r="I274">
         <v>1.641869691480086</v>
       </c>
       <c r="J274">
-        <v>1.836804492611161</v>
+        <v>1.830119672541551</v>
       </c>
       <c r="K274">
         <v>331.9142485119048</v>
@@ -11964,7 +11964,7 @@
         <v>383.5355535714286</v>
       </c>
       <c r="E275">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -11973,13 +11973,13 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>0.9074185770216684</v>
+        <v>0.9248770525703689</v>
       </c>
       <c r="I275">
         <v>1.728749550301856</v>
       </c>
       <c r="J275">
-        <v>1.772418631914998</v>
+        <v>1.76638206561486</v>
       </c>
       <c r="K275">
         <v>426.8470052083333</v>
@@ -12005,7 +12005,7 @@
         <v>433.7024523809516</v>
       </c>
       <c r="E276">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -12014,13 +12014,13 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>1.026109987785102</v>
+        <v>1.045852052346776</v>
       </c>
       <c r="I276">
         <v>1.763003220665465</v>
       </c>
       <c r="J276">
-        <v>1.769646739331372</v>
+        <v>1.763701089655336</v>
       </c>
       <c r="K276">
         <v>428.8963913690476</v>
@@ -12046,7 +12046,7 @@
         <v>492.6288630952387</v>
       </c>
       <c r="E277">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -12055,13 +12055,13 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>1.165525797509753</v>
+        <v>1.187950182630885</v>
       </c>
       <c r="I277">
         <v>1.818990045552791</v>
       </c>
       <c r="J277">
-        <v>1.768348379312767</v>
+        <v>1.762806271119441</v>
       </c>
       <c r="K277">
         <v>433.4424293154762</v>
@@ -12087,7 +12087,7 @@
         <v>411.6933630952387</v>
       </c>
       <c r="E278">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -12096,13 +12096,13 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <v>0.9740380056827571</v>
+        <v>0.9927782201067685</v>
       </c>
       <c r="I278">
         <v>1.74039354200692</v>
       </c>
       <c r="J278">
-        <v>1.761480022773561</v>
+        <v>1.755918851763384</v>
       </c>
       <c r="K278">
         <v>434.2229352678572</v>
@@ -12128,7 +12128,7 @@
         <v>415.7581785714276</v>
       </c>
       <c r="E279">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -12137,13 +12137,13 @@
         <v>0</v>
       </c>
       <c r="H279">
-        <v>0.9836550777922716</v>
+        <v>1.002580321950659</v>
       </c>
       <c r="I279">
         <v>1.750978894532601</v>
       </c>
       <c r="J279">
-        <v>1.760750699072403</v>
+        <v>1.755097883729975</v>
       </c>
       <c r="K279">
         <v>437.7269345238095</v>
@@ -12169,7 +12169,7 @@
         <v>435.5360654761912</v>
       </c>
       <c r="E280">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -12178,13 +12178,13 @@
         <v>0</v>
       </c>
       <c r="H280">
-        <v>1.030448189472526</v>
+        <v>1.050273719801821</v>
       </c>
       <c r="I280">
         <v>1.782631247549346</v>
       </c>
       <c r="J280">
-        <v>1.76360279177989</v>
+        <v>1.758444498815142</v>
       </c>
       <c r="K280">
         <v>438.0474330357143</v>
@@ -12210,7 +12210,7 @@
         <v>415.8607380952384</v>
       </c>
       <c r="E281">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -12219,13 +12219,13 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>0.9838977265279358</v>
+        <v>1.002827639179041</v>
       </c>
       <c r="I281">
         <v>1.743283711313718</v>
       </c>
       <c r="J281">
-        <v>1.752246149414147</v>
+        <v>1.746438090921571</v>
       </c>
       <c r="K281">
         <v>440.0239955357143</v>
@@ -12251,7 +12251,7 @@
         <v>426.2526011904757</v>
       </c>
       <c r="E282">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -12260,13 +12260,13 @@
         <v>0</v>
       </c>
       <c r="H282">
-        <v>1.008484155438308</v>
+        <v>1.027887103994596</v>
       </c>
       <c r="I282">
         <v>1.761638881471288</v>
       </c>
       <c r="J282">
-        <v>1.750943389536128</v>
+        <v>1.745598655879586</v>
       </c>
       <c r="K282">
         <v>441.5184151785714</v>
@@ -12292,7 +12292,7 @@
         <v>422.887113095239</v>
       </c>
       <c r="E283">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -12301,13 +12301,13 @@
         <v>0</v>
       </c>
       <c r="H283">
-        <v>1.000521643514901</v>
+        <v>1.019771395604596</v>
       </c>
       <c r="I283">
         <v>1.758748570972299</v>
       </c>
       <c r="J283">
-        <v>1.754984517362719</v>
+        <v>1.750019149463153</v>
       </c>
       <c r="K283">
         <v>442.1229538690476</v>
@@ -12333,7 +12333,7 @@
         <v>412.0532321428556</v>
       </c>
       <c r="E284">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -12342,13 +12342,13 @@
         <v>0</v>
       </c>
       <c r="H284">
-        <v>0.9748894309445401</v>
+        <v>0.9936460265486274</v>
       </c>
       <c r="I284">
         <v>1.766456888419981</v>
       </c>
       <c r="J284">
-        <v>1.770666220015825</v>
+        <v>1.766239747877939</v>
       </c>
       <c r="K284">
         <v>444.0212053571428</v>
@@ -12374,7 +12374,7 @@
         <v>399.5750238095241</v>
       </c>
       <c r="E285">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -12383,13 +12383,13 @@
         <v>0</v>
       </c>
       <c r="H285">
-        <v>0.9453668535871771</v>
+        <v>0.9635554431927319</v>
       </c>
       <c r="I285">
         <v>1.737417508616715</v>
       </c>
       <c r="J285">
-        <v>1.753861541422048</v>
+        <v>1.74863090909522</v>
       </c>
       <c r="K285">
         <v>445.986607440476</v>
@@ -12415,7 +12415,7 @@
         <v>405.1694464285711</v>
       </c>
       <c r="E286">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -12424,13 +12424,13 @@
         <v>0</v>
       </c>
       <c r="H286">
-        <v>0.9586028703396319</v>
+        <v>0.9770461171460493</v>
       </c>
       <c r="I286">
         <v>1.75043757770163</v>
       </c>
       <c r="J286">
-        <v>1.758472687100096</v>
+        <v>1.753723667597997</v>
       </c>
       <c r="K286">
         <v>448.5014880952381</v>
@@ -12456,7 +12456,7 @@
         <v>415.3347499999994</v>
       </c>
       <c r="E287">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -12465,13 +12465,13 @@
         <v>0</v>
       </c>
       <c r="H287">
-        <v>0.9826532750958127</v>
+        <v>1.001559244855016</v>
       </c>
       <c r="I287">
         <v>1.757850798196975</v>
       </c>
       <c r="J287">
-        <v>1.759829931155242</v>
+        <v>1.755475851697613</v>
       </c>
       <c r="K287">
         <v>448.8634672619048</v>
@@ -12497,7 +12497,7 @@
         <v>416.640339285716</v>
       </c>
       <c r="E288">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -12506,13 +12506,13 @@
         <v>0</v>
       </c>
       <c r="H288">
-        <v>0.9857422089919998</v>
+        <v>1.004707608961542</v>
       </c>
       <c r="I288">
         <v>1.769604528136931</v>
       </c>
       <c r="J288">
-        <v>1.776458822178078</v>
+        <v>1.77354409226185</v>
       </c>
       <c r="K288">
         <v>449.2550220238097</v>
@@ -12538,7 +12538,7 @@
         <v>399.6366369047596</v>
       </c>
       <c r="E289">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -12547,13 +12547,13 @@
         <v>0</v>
       </c>
       <c r="H289">
-        <v>0.9455126259065458</v>
+        <v>0.9637040201300993</v>
       </c>
       <c r="I289">
         <v>1.737820782444639</v>
       </c>
       <c r="J289">
-        <v>1.755842410441516</v>
+        <v>1.751127053399991</v>
       </c>
       <c r="K289">
         <v>449.7955732142856</v>
@@ -12579,7 +12579,7 @@
         <v>412.9010773809555</v>
       </c>
       <c r="E290">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -12588,13 +12588,13 @@
         <v>0</v>
       </c>
       <c r="H290">
-        <v>0.9768953741024224</v>
+        <v>0.9956905634828119</v>
       </c>
       <c r="I290">
         <v>1.764756881635319</v>
       </c>
       <c r="J290">
-        <v>1.772203950671333</v>
+        <v>1.769112432834477</v>
       </c>
       <c r="K290">
         <v>451.2738095238095</v>
@@ -12620,7 +12620,7 @@
         <v>424.9976547619029</v>
       </c>
       <c r="E291">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -12629,13 +12629,13 @@
         <v>0</v>
       </c>
       <c r="H291">
-        <v>1.005515039037364</v>
+        <v>1.024860862637872</v>
       </c>
       <c r="I291">
         <v>1.775330081941916</v>
       </c>
       <c r="J291">
-        <v>1.771820272090461</v>
+        <v>1.769072233888126</v>
       </c>
       <c r="K291">
         <v>452.1525297619048</v>
@@ -12661,7 +12661,7 @@
         <v>426.7302440476196</v>
       </c>
       <c r="E292">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -12670,13 +12670,13 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <v>1.00961422538285</v>
+        <v>1.029038916163724</v>
       </c>
       <c r="I292">
         <v>1.772825401950741</v>
       </c>
       <c r="J292">
-        <v>1.769279126301923</v>
+        <v>1.766277561758957</v>
       </c>
       <c r="K292">
         <v>454.3909970238095</v>
@@ -12702,7 +12702,7 @@
         <v>417.5347321428583</v>
       </c>
       <c r="E293">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -12711,13 +12711,13 @@
         <v>0</v>
       </c>
       <c r="H293">
-        <v>0.9878582805951904</v>
+        <v>1.006864393181026</v>
       </c>
       <c r="I293">
         <v>1.76023304811043</v>
       </c>
       <c r="J293">
-        <v>1.764378182462857</v>
+        <v>1.761333144247893</v>
       </c>
       <c r="K293">
         <v>456.775855357143</v>
@@ -12743,22 +12743,22 @@
         <v>426.617785714284</v>
       </c>
       <c r="E294">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F294">
-        <v>3.951153926482164</v>
+        <v>11.92963607804091</v>
       </c>
       <c r="G294">
-        <v>3.951153926482164</v>
+        <v>11.92963607804091</v>
       </c>
       <c r="H294">
-        <v>1.0093481567489</v>
+        <v>1.02876772844487</v>
       </c>
       <c r="I294">
         <v>1.761895831937071</v>
       </c>
       <c r="J294">
-        <v>1.752330060557685</v>
+        <v>1.748893971217276</v>
       </c>
       <c r="K294">
         <v>466.8776041666667</v>
@@ -12784,22 +12784,22 @@
         <v>438.6807321428565</v>
       </c>
       <c r="E295">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F295">
-        <v>16.01410035505472</v>
+        <v>23.99258250661347</v>
       </c>
       <c r="G295">
-        <v>19.96525428153689</v>
+        <v>35.92221858465439</v>
       </c>
       <c r="H295">
-        <v>1.037888253177967</v>
+        <v>1.057856928218613</v>
       </c>
       <c r="I295">
         <v>1.767121902576645</v>
       </c>
       <c r="J295">
-        <v>1.749731969160434</v>
+        <v>1.746206872834892</v>
       </c>
       <c r="K295">
         <v>468.729913690476</v>
@@ -12825,22 +12825,22 @@
         <v>427.6427142857158</v>
       </c>
       <c r="E296">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F296">
-        <v>4.976082497914035</v>
+        <v>12.95456464947279</v>
       </c>
       <c r="G296">
-        <v>24.94133677945092</v>
+        <v>48.87678323412717</v>
       </c>
       <c r="H296">
-        <v>1.011773066818325</v>
+        <v>1.031239293094911</v>
       </c>
       <c r="I296">
         <v>1.753283856831114</v>
       </c>
       <c r="J296">
-        <v>1.751550753845956</v>
+        <v>1.748585108436891</v>
       </c>
       <c r="K296">
         <v>469.71875</v>
@@ -12866,22 +12866,22 @@
         <v>425.0907738095238</v>
       </c>
       <c r="E297">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F297">
-        <v>2.424142021721991</v>
+        <v>10.40262417328074</v>
       </c>
       <c r="G297">
-        <v>27.36547880117291</v>
+        <v>59.27940740740792</v>
       </c>
       <c r="H297">
-        <v>1.005735352259695</v>
+        <v>1.025085414623991</v>
       </c>
       <c r="I297">
         <v>1.750782418300335</v>
       </c>
       <c r="J297">
-        <v>1.744497178409087</v>
+        <v>1.740959788056478</v>
       </c>
       <c r="K297">
         <v>470.1186726190478</v>
@@ -12907,22 +12907,22 @@
         <v>429.6693511904755</v>
       </c>
       <c r="E298">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F298">
-        <v>7.002719402673677</v>
+        <v>14.98120155423243</v>
       </c>
       <c r="G298">
-        <v>34.36819820384659</v>
+        <v>74.26060896164034</v>
       </c>
       <c r="H298">
-        <v>1.016567949480785</v>
+        <v>1.036126427937171</v>
       </c>
       <c r="I298">
         <v>1.754076038613683</v>
       </c>
       <c r="J298">
-        <v>1.739804437716286</v>
+        <v>1.735996054374697</v>
       </c>
       <c r="K298">
         <v>470.5881696428572</v>
@@ -12948,22 +12948,22 @@
         <v>95.71732499999925</v>
       </c>
       <c r="E299">
-        <v>422.6666317878018</v>
+        <v>414.6881496362431</v>
       </c>
       <c r="F299">
-        <v>-326.9493067878026</v>
+        <v>-318.9708246362438</v>
       </c>
       <c r="G299">
-        <v>-292.581108583956</v>
+        <v>-244.7102156746035</v>
       </c>
       <c r="H299">
-        <v>0.2264605667950002</v>
+        <v>0.2308176037438271</v>
       </c>
       <c r="I299">
         <v>0.7987803135479077</v>
       </c>
       <c r="J299">
-        <v>1.735515984150051</v>
+        <v>1.723333815909949</v>
       </c>
       <c r="K299">
         <v>102.7984375</v>
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="J300">
-        <v>1.690937323558878</v>
+        <v>1.682153446715254</v>
       </c>
       <c r="K300">
         <v>467.9846666666601</v>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -13042,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="J301">
-        <v>1.658637597480684</v>
+        <v>1.650021507350382</v>
       </c>
       <c r="K301">
         <v>477.0980357142869</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="J302">
-        <v>1.598792345563564</v>
+        <v>1.590487132315091</v>
       </c>
       <c r="K302">
         <v>494.9565476190487</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="J303">
-        <v>1.526268408169003</v>
+        <v>1.518339933505345</v>
       </c>
       <c r="K303">
         <v>518.4754761904755</v>
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
       <c r="J304">
-        <v>1.502457331395169</v>
+        <v>1.494652547635356</v>
       </c>
       <c r="K304">
         <v>526.6923214285717</v>
@@ -13191,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -13206,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="J305">
-        <v>1.488435298605302</v>
+        <v>1.480703354806739</v>
       </c>
       <c r="K305">
         <v>531.6541071428552</v>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="J306">
-        <v>1.486529327264506</v>
+        <v>1.47880728437551</v>
       </c>
       <c r="K306">
         <v>532.3357738095247</v>
@@ -13273,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -13288,7 +13288,7 @@
         <v>0</v>
       </c>
       <c r="J307">
-        <v>1.482067336021914</v>
+        <v>1.474368471745753</v>
       </c>
       <c r="K307">
         <v>533.9384523809533</v>
@@ -13314,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -13329,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="J308">
-        <v>1.475621932121636</v>
+        <v>1.467956549650673</v>
       </c>
       <c r="K308">
         <v>536.2706547619032</v>
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="J309">
-        <v>1.460409393372748</v>
+        <v>1.452823035159507</v>
       </c>
       <c r="K309">
         <v>541.8567857142854</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="J310">
-        <v>1.443394100964083</v>
+        <v>1.435896131735397</v>
       </c>
       <c r="K310">
         <v>548.2444047619051</v>
@@ -13437,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -13452,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="J311">
-        <v>1.442818415146656</v>
+        <v>1.435323436421077</v>
       </c>
       <c r="K311">
         <v>548.4631547619051</v>
@@ -13478,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="E312">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -13493,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="J312">
-        <v>1.435057668572967</v>
+        <v>1.427603004435734</v>
       </c>
       <c r="K312">
         <v>551.4292261904754</v>
@@ -13519,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -13534,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="J313">
-        <v>1.425944196665813</v>
+        <v>1.418536874090999</v>
       </c>
       <c r="K313">
         <v>554.9535119047644</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -13575,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="J314">
-        <v>1.421702368303824</v>
+        <v>1.414317080666323</v>
       </c>
       <c r="K314">
         <v>556.609285714285</v>
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -13616,7 +13616,7 @@
         <v>0</v>
       </c>
       <c r="J315">
-        <v>1.420863316114162</v>
+        <v>1.413482387083568</v>
       </c>
       <c r="K315">
         <v>556.9379761904738</v>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -13657,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="J316">
-        <v>1.418578655263841</v>
+        <v>1.411209594313311</v>
       </c>
       <c r="K316">
         <v>557.8349404761906</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="J317">
-        <v>1.419007160395755</v>
+        <v>1.411635873498555</v>
       </c>
       <c r="K317">
         <v>557.6664880952421</v>
@@ -13724,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="J318">
-        <v>1.417592412157157</v>
+        <v>1.410228474423121</v>
       </c>
       <c r="K318">
         <v>558.2230357142814</v>
@@ -13765,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="J319">
-        <v>1.409883575846662</v>
+        <v>1.402559683043811</v>
       </c>
       <c r="K319">
         <v>561.2752380952422</v>
@@ -13806,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="E320">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -13821,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="J320">
-        <v>1.404964707008827</v>
+        <v>1.397666366151326</v>
       </c>
       <c r="K320">
         <v>563.2402976190427</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="J321">
-        <v>1.400293282717649</v>
+        <v>1.393019208410473</v>
       </c>
       <c r="K321">
         <v>565.119285714286</v>
@@ -13888,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="J322">
-        <v>1.394109951014003</v>
+        <v>1.38686799713105</v>
       </c>
       <c r="K322">
         <v>567.6257738095287</v>
@@ -13929,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="J323">
-        <v>1.388632083698044</v>
+        <v>1.381418585578175</v>
       </c>
       <c r="K323">
         <v>569.8649404761881</v>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -13985,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="J324">
-        <v>1.377646576071943</v>
+        <v>1.370490144139394</v>
       </c>
       <c r="K324">
         <v>574.4091071428543</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -14026,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="J325">
-        <v>1.361735557288775</v>
+        <v>1.354661777993613</v>
       </c>
       <c r="K325">
         <v>581.1207142857158</v>
@@ -14052,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -14067,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="J326">
-        <v>1.35699010860343</v>
+        <v>1.349940980391569</v>
       </c>
       <c r="K326">
         <v>583.1529166666691</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="J327">
-        <v>1.346611940827218</v>
+        <v>1.339616723867027</v>
       </c>
       <c r="K327">
         <v>587.6472023809495</v>
@@ -14134,7 +14134,7 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="J328">
-        <v>1.337656897881567</v>
+        <v>1.330708199496174</v>
       </c>
       <c r="K328">
         <v>591.5812500000022</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -14190,7 +14190,7 @@
         <v>0</v>
       </c>
       <c r="J329">
-        <v>1.336436181645683</v>
+        <v>1.329493824489457</v>
       </c>
       <c r="K329">
         <v>592.1216071428554</v>
@@ -14216,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="J330">
-        <v>1.333128569357989</v>
+        <v>1.326203394186321</v>
       </c>
       <c r="K330">
         <v>593.5907142857156</v>
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="J331">
-        <v>1.322082012951954</v>
+        <v>1.315214221096429</v>
       </c>
       <c r="K331">
         <v>598.5504166666707</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -14313,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="J332">
-        <v>1.317136943675508</v>
+        <v>1.310294839868205</v>
       </c>
       <c r="K332">
         <v>600.797619047619</v>
@@ -14339,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -14354,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="J333">
-        <v>1.318221465347925</v>
+        <v>1.311373727798512</v>
       </c>
       <c r="K333">
         <v>600.3033333333276</v>
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -14395,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="J334">
-        <v>1.317033208422685</v>
+        <v>1.310191643486736</v>
       </c>
       <c r="K334">
         <v>600.8449404761972</v>
@@ -14421,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="J335">
-        <v>1.315193744722216</v>
+        <v>1.308361735209983</v>
       </c>
       <c r="K335">
         <v>601.685297619047</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -14477,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="J336">
-        <v>1.312541604619895</v>
+        <v>1.30572337212453</v>
       </c>
       <c r="K336">
         <v>602.9010714285707</v>
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="E337">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="J337">
-        <v>1.308908124345037</v>
+        <v>1.302108766613866</v>
       </c>
       <c r="K337">
         <v>604.5747023809457</v>
@@ -14544,7 +14544,7 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="J338">
-        <v>1.30763394516697</v>
+        <v>1.300841206387798</v>
       </c>
       <c r="K338">
         <v>605.1638095238125</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="J339">
-        <v>1.300976244453302</v>
+        <v>1.294218090293155</v>
       </c>
       <c r="K339">
         <v>608.2607142857132</v>
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="E340">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="J340">
-        <v>1.293335037814809</v>
+        <v>1.286616577271399</v>
       </c>
       <c r="K340">
         <v>611.854404761905</v>
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="E341">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -14682,7 +14682,7 @@
         <v>0</v>
       </c>
       <c r="J341">
-        <v>1.28507077757013</v>
+        <v>1.27839524720703</v>
       </c>
       <c r="K341">
         <v>615.7892261904753</v>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>791.3327397199029</v>
+        <v>787.2220200431987</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="J342">
-        <v>1.280324968733842</v>
+        <v>1.273674091324912</v>
       </c>
       <c r="K342">
         <v>618.0717857142888</v>
@@ -14749,7 +14749,7 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>789.5605106644293</v>
+        <v>785.2764824543383</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -14764,7 +14764,7 @@
         <v>0</v>
       </c>
       <c r="J343">
-        <v>1.264617438988642</v>
+        <v>1.257755828370551</v>
       </c>
       <c r="K343">
         <v>624.3473214285692</v>
@@ -14790,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="E344">
-        <v>778.3139193939154</v>
+        <v>772.9300727192342</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -14805,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="J344">
-        <v>1.245441879134257</v>
+        <v>1.236826758740795</v>
       </c>
       <c r="K344">
         <v>624.9299404761875</v>
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="E345">
-        <v>776.7407450511944</v>
+        <v>771.203055656659</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="J345">
-        <v>1.226412007772423</v>
+        <v>1.217668435593362</v>
       </c>
       <c r="K345">
         <v>633.344047619052</v>
@@ -14872,7 +14872,7 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>770.3300596046062</v>
+        <v>764.1654611266649</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -14887,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="J346">
-        <v>1.213619328318194</v>
+        <v>1.2039072889516</v>
       </c>
       <c r="K346">
         <v>634.7377976190487</v>
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <v>772.7749009555899</v>
+        <v>766.8493866228915</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="J347">
-        <v>1.215232188064829</v>
+        <v>1.205913982027042</v>
       </c>
       <c r="K347">
         <v>635.9072023809533</v>
@@ -14954,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>765.4981669805344</v>
+        <v>758.8610515773266</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="J348">
-        <v>1.196478138876149</v>
+        <v>1.186104288450799</v>
       </c>
       <c r="K348">
         <v>639.7928571428527</v>
@@ -14995,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="E349">
-        <v>766.0688439997562</v>
+        <v>759.4875358280874</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -15010,7 +15010,7 @@
         <v>0</v>
       </c>
       <c r="J349">
-        <v>1.196515402486627</v>
+        <v>1.186236121900305</v>
       </c>
       <c r="K349">
         <v>640.2498809523836</v>
@@ -15036,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="E350">
-        <v>767.9823376900862</v>
+        <v>761.5881525001176</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -15051,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="J350">
-        <v>1.196189697478584</v>
+        <v>1.186230277746333</v>
       </c>
       <c r="K350">
         <v>642.0238690476177</v>
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <v>770.5949307949622</v>
+        <v>764.4562344076087</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -15092,7 +15092,7 @@
         <v>0</v>
       </c>
       <c r="J351">
-        <v>1.199493558659148</v>
+        <v>1.189938179456746</v>
       </c>
       <c r="K351">
         <v>642.4335714285705</v>
@@ -15118,7 +15118,7 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <v>765.764643450832</v>
+        <v>759.1535871205792</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="J352">
-        <v>1.190321612740279</v>
+        <v>1.180045239574914</v>
       </c>
       <c r="K352">
         <v>643.3258333333347</v>
@@ -15159,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <v>761.7867597556659</v>
+        <v>754.7867011194961</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -15174,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="J353">
-        <v>1.18322284793853</v>
+        <v>1.172350213032297</v>
       </c>
       <c r="K353">
         <v>643.8235714285735</v>
@@ -15200,7 +15200,7 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>765.5358910591608</v>
+        <v>758.9024647415823</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -15215,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="J354">
-        <v>1.189892491493684</v>
+        <v>1.17958198318134</v>
       </c>
       <c r="K354">
         <v>643.3655952380892</v>
@@ -15241,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="E355">
-        <v>758.1387610884888</v>
+        <v>750.7819600228612</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -15256,7 +15256,7 @@
         <v>0</v>
       </c>
       <c r="J355">
-        <v>1.17699313687594</v>
+        <v>1.16557187099689</v>
       </c>
       <c r="K355">
         <v>644.1318452380974</v>
@@ -15282,7 +15282,7 @@
         <v>0</v>
       </c>
       <c r="E356">
-        <v>760.8805792286598</v>
+        <v>753.7919040462066</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="J356">
-        <v>1.176405914817526</v>
+        <v>1.165446035382422</v>
       </c>
       <c r="K356">
         <v>646.7840476190461</v>
@@ -15323,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <v>758.5079754750458</v>
+        <v>751.1872803538738</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -15338,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="J357">
-        <v>1.170708308193313</v>
+        <v>1.159409285800386</v>
       </c>
       <c r="K357">
         <v>647.9051785714304</v>
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>763.1713137052546</v>
+        <v>756.3066523607932</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -15379,7 +15379,7 @@
         <v>0</v>
       </c>
       <c r="J358">
-        <v>1.168132980254181</v>
+        <v>1.157625723009658</v>
       </c>
       <c r="K358">
         <v>653.3257142857127</v>
@@ -15405,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="E359">
-        <v>757.3706346364561</v>
+        <v>749.9387175081242</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="J359">
-        <v>1.153338628323434</v>
+        <v>1.14202116139957</v>
       </c>
       <c r="K359">
         <v>656.6767261904786</v>
@@ -15446,7 +15446,7 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>757.5239388708744</v>
+        <v>750.1070135586099</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -15461,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="J360">
-        <v>1.151804207530236</v>
+        <v>1.14052687972151</v>
       </c>
       <c r="K360">
         <v>657.6846428571457</v>
@@ -15487,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>758.0151545329893</v>
+        <v>750.6462658250874</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="J361">
-        <v>1.15104305281294</v>
+        <v>1.13985342407866</v>
       </c>
       <c r="K361">
         <v>658.5463095238056</v>
@@ -15528,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="E362">
-        <v>759.8845030249267</v>
+        <v>752.6984202836271</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="J362">
-        <v>1.154912176135219</v>
+        <v>1.143990392069871</v>
       </c>
       <c r="K362">
         <v>657.9586904761936</v>
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="E363">
-        <v>760.9544221059712</v>
+        <v>753.8729681124091</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -15584,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="J363">
-        <v>1.154473368335903</v>
+        <v>1.143729820749915</v>
       </c>
       <c r="K363">
         <v>659.1355357142886</v>
@@ -15610,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="E364">
-        <v>758.3458422009491</v>
+        <v>751.00929186069</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -15625,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="J364">
-        <v>1.14424231068613</v>
+        <v>1.133172438806251</v>
       </c>
       <c r="K364">
         <v>662.7493452380933</v>
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="E365">
-        <v>759.1404557720173</v>
+        <v>751.8816117035213</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="J365">
-        <v>1.140049325504407</v>
+        <v>1.129148259408786</v>
       </c>
       <c r="K365">
         <v>665.8838690476093</v>
@@ -15692,7 +15692,7 @@
         <v>0</v>
       </c>
       <c r="E366">
-        <v>756.9420248920617</v>
+        <v>749.4681934716879</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="J366">
-        <v>1.125997087762604</v>
+        <v>1.114879311054448</v>
       </c>
       <c r="K366">
         <v>672.2415476190481</v>
@@ -15733,7 +15733,7 @@
         <v>0</v>
       </c>
       <c r="E367">
-        <v>757.6828615850881</v>
+        <v>750.2814775271762</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -15748,7 +15748,7 @@
         <v>0</v>
       </c>
       <c r="J367">
-        <v>1.127868605746395</v>
+        <v>1.116851082266285</v>
       </c>
       <c r="K367">
         <v>671.7829166666627</v>
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E368">
-        <v>757.2173304020379</v>
+        <v>749.7704214576386</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="J368">
-        <v>1.128388104513452</v>
+        <v>1.117290889578087</v>
       </c>
       <c r="K368">
         <v>671.0610714285701</v>
@@ -15815,7 +15815,7 @@
         <v>0</v>
       </c>
       <c r="E369">
-        <v>758.2326699650696</v>
+        <v>750.8850523679231</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -15830,7 +15830,7 @@
         <v>0</v>
       </c>
       <c r="J369">
-        <v>1.126322209947712</v>
+        <v>1.115407638184074</v>
       </c>
       <c r="K369">
         <v>673.1933928571442</v>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="E370">
-        <v>763.5999234496491</v>
+        <v>756.7771763972295</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -15871,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="J370">
-        <v>1.126515264902474</v>
+        <v>1.116449877954297</v>
       </c>
       <c r="K370">
         <v>677.8425000000002</v>
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="E371">
-        <v>757.3040155188817</v>
+        <v>749.8655836223111</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -15912,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="J371">
-        <v>1.116898346896022</v>
+        <v>1.105927888376684</v>
       </c>
       <c r="K371">
         <v>678.0420238095214</v>
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
       <c r="E372">
-        <v>758.7190697873599</v>
+        <v>751.4190178474745</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="J372">
-        <v>1.121368807734769</v>
+        <v>1.11057950393814</v>
       </c>
       <c r="K372">
         <v>676.6008333333358</v>
@@ -15979,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="E373">
-        <v>759.1492848116959</v>
+        <v>751.8913041462195</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="J373">
-        <v>1.120971442773237</v>
+        <v>1.11025419753442</v>
       </c>
       <c r="K373">
         <v>677.224464285714</v>
@@ -16020,7 +16020,7 @@
         <v>0</v>
       </c>
       <c r="E374">
-        <v>762.1615926220184</v>
+        <v>755.1981893685893</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -16035,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="J374">
-        <v>1.118331748927766</v>
+        <v>1.108114237294693</v>
       </c>
       <c r="K374">
         <v>681.5165476190492</v>
@@ -16061,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="E375">
-        <v>767.792914656983</v>
+        <v>761.3802055476851</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -16076,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="J375">
-        <v>1.118850316031169</v>
+        <v>1.10950552855451</v>
       </c>
       <c r="K375">
         <v>686.2338095238056</v>
@@ -16102,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="E376">
-        <v>762.4649905309717</v>
+        <v>755.5312569449432</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="J376">
-        <v>1.10763468071939</v>
+        <v>1.097562029670316</v>
       </c>
       <c r="K376">
         <v>688.3722619047677</v>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="E377">
-        <v>765.7742751304813</v>
+        <v>759.1641606944318</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -16158,7 +16158,7 @@
         <v>0</v>
       </c>
       <c r="J377">
-        <v>1.108637232935541</v>
+        <v>1.099067547434522</v>
       </c>
       <c r="K377">
         <v>690.7347619047588</v>
@@ -16184,7 +16184,7 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <v>775.405152139823</v>
+        <v>769.7368534157788</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -16199,7 +16199,7 @@
         <v>0</v>
       </c>
       <c r="J378">
-        <v>1.134642288489892</v>
+        <v>1.126347925964256</v>
       </c>
       <c r="K378">
         <v>683.3917261904793</v>
@@ -16225,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="E379">
-        <v>770.1839791299249</v>
+        <v>764.0050952565687</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -16240,7 +16240,7 @@
         <v>0</v>
       </c>
       <c r="J379">
-        <v>1.109080773958148</v>
+        <v>1.100183054070231</v>
       </c>
       <c r="K379">
         <v>694.4345238095239</v>
@@ -16266,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>774.0735724283056</v>
+        <v>768.2750568306705</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="J380">
-        <v>1.113892457374362</v>
+        <v>1.105548389034823</v>
       </c>
       <c r="K380">
         <v>694.9266666666649</v>
@@ -16307,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="E381">
-        <v>766.5929679006729</v>
+        <v>760.0629144718944</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -16322,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="J381">
-        <v>1.086471618450102</v>
+        <v>1.077216749159089</v>
       </c>
       <c r="K381">
         <v>705.5802976190434</v>
@@ -16348,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="E382">
-        <v>773.2709324575295</v>
+        <v>767.3939256762953</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -16363,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="J382">
-        <v>1.092460611673128</v>
+        <v>1.084157702364706</v>
       </c>
       <c r="K382">
         <v>707.8250000000033</v>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>775.3489673418687</v>
+        <v>769.6751742349725</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -16404,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="J383">
-        <v>1.099081536774818</v>
+        <v>1.09103875667201</v>
       </c>
       <c r="K383">
         <v>705.4517261904742</v>
@@ -16430,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="E384">
-        <v>779.4929975109854</v>
+        <v>774.2244543850112</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -16445,7 +16445,7 @@
         <v>0</v>
       </c>
       <c r="J384">
-        <v>1.107127283259973</v>
+        <v>1.099644281031059</v>
       </c>
       <c r="K384">
         <v>704.0680952380922</v>
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="E385">
-        <v>790.8054052591031</v>
+        <v>786.6431168747741</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="J385">
-        <v>1.119396432107758</v>
+        <v>1.113504652997706</v>
       </c>
       <c r="K385">
         <v>706.4569642857172</v>
@@ -16512,7 +16512,7 @@
         <v>61491.41423809523</v>
       </c>
       <c r="E386">
-        <v>782.5815561185317</v>
+        <v>777.6150470670467</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -16521,13 +16521,13 @@
         <v>0</v>
       </c>
       <c r="H386">
-        <v>78.57508748747151</v>
+        <v>79.07693462211692</v>
       </c>
       <c r="I386">
         <v>79.93855176142846</v>
       </c>
       <c r="J386">
-        <v>52.60427076476424</v>
+        <v>52.60203458350381</v>
       </c>
       <c r="K386">
         <v>2220.977851562496</v>
@@ -16553,7 +16553,7 @@
         <v>413.0126458333366</v>
       </c>
       <c r="E387">
-        <v>795.0858842232517</v>
+        <v>791.3421893210567</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -16562,13 +16562,13 @@
         <v>0</v>
       </c>
       <c r="H387">
-        <v>0.5194566449092776</v>
+        <v>0.5219140991177112</v>
       </c>
       <c r="I387">
         <v>1.653272986153231</v>
       </c>
       <c r="J387">
-        <v>2.118327584851057</v>
+        <v>2.11377080788933</v>
       </c>
       <c r="K387">
         <v>821.5664127604271</v>
@@ -16594,7 +16594,7 @@
         <v>415.3631488095173</v>
       </c>
       <c r="E388">
-        <v>797.1446557482922</v>
+        <v>793.6022907320289</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -16603,13 +16603,13 @@
         <v>0</v>
       </c>
       <c r="H388">
-        <v>0.5210637063352189</v>
+        <v>0.5233895537604624</v>
       </c>
       <c r="I388">
         <v>1.403326608327421</v>
       </c>
       <c r="J388">
-        <v>1.866510522108002</v>
+        <v>1.862212863728924</v>
       </c>
       <c r="K388">
         <v>824.254676339283</v>
@@ -16635,7 +16635,7 @@
         <v>412.1745684523873</v>
       </c>
       <c r="E389">
-        <v>788.9521095665812</v>
+        <v>784.6085850393221</v>
       </c>
       <c r="F389">
         <v>0</v>
@@ -16644,13 +16644,13 @@
         <v>0</v>
       </c>
       <c r="H389">
-        <v>0.5224329378862039</v>
+        <v>0.5253250809532379</v>
       </c>
       <c r="I389">
         <v>1.658512586687475</v>
       </c>
       <c r="J389">
-        <v>2.11990358912834</v>
+        <v>2.114584633200574</v>
       </c>
       <c r="K389">
         <v>816.6122423735103</v>
@@ -16676,7 +16676,7 @@
         <v>410.9204910714252</v>
       </c>
       <c r="E390">
-        <v>785.5858375291464</v>
+        <v>780.9131209778727</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -16685,13 +16685,13 @@
         <v>0</v>
       </c>
       <c r="H390">
-        <v>0.5230752279901933</v>
+        <v>0.5262051309329565</v>
       </c>
       <c r="I390">
         <v>1.646234175047304</v>
       </c>
       <c r="J390">
-        <v>2.107175413237095</v>
+        <v>2.101426689013684</v>
       </c>
       <c r="K390">
         <v>812.8267020089274</v>
@@ -16717,7 +16717,7 @@
         <v>415.920648809521</v>
       </c>
       <c r="E391">
-        <v>789.7900656960713</v>
+        <v>785.5284859644896</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -16726,13 +16726,13 @@
         <v>0</v>
       </c>
       <c r="H391">
-        <v>0.52662177821008</v>
+        <v>0.5294787601481368</v>
       </c>
       <c r="I391">
         <v>1.659368056069076</v>
       </c>
       <c r="J391">
-        <v>2.116937893770051</v>
+        <v>2.111722248258395</v>
       </c>
       <c r="K391">
         <v>817.0761839657733</v>
@@ -16758,7 +16758,7 @@
         <v>422.5688898809552</v>
       </c>
       <c r="E392">
-        <v>791.099171488407</v>
+        <v>786.9656108772755</v>
       </c>
       <c r="F392">
         <v>0</v>
@@ -16767,13 +16767,13 @@
         <v>0</v>
       </c>
       <c r="H392">
-        <v>0.5341541302412395</v>
+        <v>0.5369597909238925</v>
       </c>
       <c r="I392">
         <v>1.666032369484896</v>
       </c>
       <c r="J392">
-        <v>2.116222850189923</v>
+        <v>2.111173361093852</v>
       </c>
       <c r="K392">
         <v>818.6096716889934</v>
@@ -16799,7 +16799,7 @@
         <v>411.5161071428606</v>
       </c>
       <c r="E393">
-        <v>781.143225290901</v>
+        <v>776.0360600384065</v>
       </c>
       <c r="F393">
         <v>0</v>
@@ -16808,13 +16808,13 @@
         <v>0</v>
       </c>
       <c r="H393">
-        <v>0.5268126174807575</v>
+        <v>0.5302796201538552</v>
       </c>
       <c r="I393">
         <v>1.649377423514526</v>
       </c>
       <c r="J393">
-        <v>2.103041638888077</v>
+        <v>2.09677332684251</v>
       </c>
       <c r="K393">
         <v>814.7592550223205</v>
@@ -16840,7 +16840,7 @@
         <v>412.7852499999935</v>
       </c>
       <c r="E394">
-        <v>786.8347453236739</v>
+        <v>782.2841610540804</v>
       </c>
       <c r="F394">
         <v>0</v>
@@ -16849,13 +16849,13 @@
         <v>0</v>
       </c>
       <c r="H394">
-        <v>0.5246149238493394</v>
+        <v>0.5276666338786541</v>
       </c>
       <c r="I394">
         <v>1.650350590348997</v>
       </c>
       <c r="J394">
-        <v>2.105729232646411</v>
+        <v>2.100189220128671</v>
       </c>
       <c r="K394">
         <v>821.4032468377901</v>
@@ -16881,7 +16881,7 @@
         <v>406.7882916666668</v>
       </c>
       <c r="E395">
-        <v>785.9237489568432</v>
+        <v>781.2840771938647</v>
       </c>
       <c r="F395">
         <v>0</v>
@@ -16890,13 +16890,13 @@
         <v>0</v>
       </c>
       <c r="H395">
-        <v>0.5175925682441802</v>
+        <v>0.5206663024897766</v>
       </c>
       <c r="I395">
         <v>1.645263104631812</v>
       </c>
       <c r="J395">
-        <v>2.105272469516116</v>
+        <v>2.09964310296672</v>
       </c>
       <c r="K395">
         <v>824.1907366071495</v>
@@ -16922,7 +16922,7 @@
         <v>398.1161488095237</v>
       </c>
       <c r="E396">
-        <v>771.4682030831666</v>
+        <v>765.4149051035688</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -16931,13 +16931,13 @@
         <v>0</v>
       </c>
       <c r="H396">
-        <v>0.5160499774565636</v>
+        <v>0.5201311682787969</v>
       </c>
       <c r="I396">
         <v>1.625824353312533</v>
       </c>
       <c r="J396">
-        <v>2.079335382013782</v>
+        <v>2.071982436282431</v>
       </c>
       <c r="K396">
         <v>823.2480152529786</v>
@@ -16963,7 +16963,7 @@
         <v>408.9753005952415</v>
       </c>
       <c r="E397">
-        <v>774.1361783460261</v>
+        <v>768.3437850607118</v>
       </c>
       <c r="F397">
         <v>0</v>
@@ -16972,13 +16972,13 @@
         <v>0</v>
       </c>
       <c r="H397">
-        <v>0.528298911787115</v>
+        <v>0.5322816537950207</v>
       </c>
       <c r="I397">
         <v>1.657947867151835</v>
       </c>
       <c r="J397">
-        <v>2.100558457194828</v>
+        <v>2.093537511726722</v>
       </c>
       <c r="K397">
         <v>825.0161337425567</v>
@@ -17004,7 +17004,7 @@
         <v>418.7324345238092</v>
       </c>
       <c r="E398">
-        <v>785.2752158604561</v>
+        <v>780.5721232211296</v>
       </c>
       <c r="F398">
         <v>0</v>
@@ -17013,13 +17013,13 @@
         <v>0</v>
       </c>
       <c r="H398">
-        <v>0.5332301670376647</v>
+        <v>0.5364429782553044</v>
       </c>
       <c r="I398">
         <v>1.642095441717153</v>
       </c>
       <c r="J398">
-        <v>2.086947116198142</v>
+        <v>2.081239245951143</v>
       </c>
       <c r="K398">
         <v>823.9662844122033</v>
@@ -17045,7 +17045,7 @@
         <v>401.9124672619017</v>
       </c>
       <c r="E399">
-        <v>772.1833552971281</v>
+        <v>766.199992962117</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -17054,13 +17054,13 @@
         <v>0</v>
       </c>
       <c r="H399">
-        <v>0.5204883846625391</v>
+        <v>0.5245529508661498</v>
       </c>
       <c r="I399">
         <v>1.645126608450562</v>
       </c>
       <c r="J399">
-        <v>2.092952972532819</v>
+        <v>2.085716358783104</v>
       </c>
       <c r="K399">
         <v>826.8179761904702</v>
@@ -17086,7 +17086,7 @@
         <v>401.8441517857206</v>
       </c>
       <c r="E400">
-        <v>770.3613625634664</v>
+        <v>764.1998252416855</v>
       </c>
       <c r="F400">
         <v>0</v>
@@ -17095,13 +17095,13 @@
         <v>0</v>
       </c>
       <c r="H400">
-        <v>0.5216307194438435</v>
+        <v>0.525836487411697</v>
       </c>
       <c r="I400">
         <v>1.633026035482704</v>
       </c>
       <c r="J400">
-        <v>2.078789640433329</v>
+        <v>2.071336558166701</v>
       </c>
       <c r="K400">
         <v>826.7099572172599</v>
@@ -17127,7 +17127,7 @@
         <v>408.8443749999968</v>
       </c>
       <c r="E401">
-        <v>774.7766850427054</v>
+        <v>769.0469277219031</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -17136,13 +17136,13 @@
         <v>0</v>
       </c>
       <c r="H401">
-        <v>0.5276931829427229</v>
+        <v>0.5316247426032757</v>
       </c>
       <c r="I401">
         <v>1.657786306016229</v>
       </c>
       <c r="J401">
-        <v>2.099391510047039</v>
+        <v>2.092476868783455</v>
       </c>
       <c r="K401">
         <v>828.6412992931603</v>
@@ -17168,7 +17168,7 @@
         <v>391.3073273809558</v>
       </c>
       <c r="E402">
-        <v>771.6576261162697</v>
+        <v>765.6228520560013</v>
       </c>
       <c r="F402">
         <v>0</v>
@@ -17177,13 +17177,13 @@
         <v>0</v>
       </c>
       <c r="H402">
-        <v>0.5070996697724536</v>
+        <v>0.5110967186130094</v>
       </c>
       <c r="I402">
         <v>1.624738984618187</v>
       </c>
       <c r="J402">
-        <v>2.08405406412352</v>
+        <v>2.076766406570719</v>
       </c>
       <c r="K402">
         <v>828.0814536830267</v>
@@ -17209,7 +17209,7 @@
         <v>390.5900803571394</v>
       </c>
       <c r="E403">
-        <v>762.4738195706502</v>
+        <v>755.5409493876413</v>
       </c>
       <c r="F403">
         <v>0</v>
@@ -17218,13 +17218,13 @@
         <v>0</v>
       </c>
       <c r="H403">
-        <v>0.5122668743919379</v>
+        <v>0.5169674531522201</v>
       </c>
       <c r="I403">
         <v>1.629371329948373</v>
       </c>
       <c r="J403">
-        <v>2.078794203121543</v>
+        <v>2.07041580388426</v>
       </c>
       <c r="K403">
         <v>827.4695424107236</v>
@@ -17250,7 +17250,7 @@
         <v>389.606181547616</v>
       </c>
       <c r="E404">
-        <v>767.2463168368846</v>
+        <v>760.7801552315557</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -17259,13 +17259,13 @@
         <v>0</v>
       </c>
       <c r="H404">
-        <v>0.5077980473778484</v>
+        <v>0.5121140172603912</v>
       </c>
       <c r="I404">
         <v>1.60366987030945</v>
       </c>
       <c r="J404">
-        <v>2.05595670531839</v>
+        <v>2.048212401962259</v>
       </c>
       <c r="K404">
         <v>834.9571688988058</v>
@@ -17291,7 +17291,7 @@
         <v>377.0518482142901</v>
       </c>
       <c r="E405">
-        <v>759.6188291945998</v>
+        <v>752.4067658715289</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -17300,13 +17300,13 @@
         <v>0</v>
       </c>
       <c r="H405">
-        <v>0.4963698024890543</v>
+        <v>0.5011276683265107</v>
       </c>
       <c r="I405">
         <v>1.4486988534195</v>
       </c>
       <c r="J405">
-        <v>1.902980948971231</v>
+        <v>1.89441692906742</v>
       </c>
       <c r="K405">
         <v>842.1352827380955</v>
@@ -17332,7 +17332,7 @@
         <v>358.5632738095231</v>
       </c>
       <c r="E406">
-        <v>758.052075971645</v>
+        <v>750.6867978581887</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -17341,13 +17341,13 @@
         <v>0</v>
       </c>
       <c r="H406">
-        <v>0.4730061234248704</v>
+        <v>0.4776469691921489</v>
       </c>
       <c r="I406">
         <v>1.57827017453284</v>
       </c>
       <c r="J406">
-        <v>2.051892879895112</v>
+        <v>2.043160812996213</v>
       </c>
       <c r="K406">
         <v>843.4747693452407</v>
@@ -17373,7 +17373,7 @@
         <v>393.0064821428476</v>
       </c>
       <c r="E407">
-        <v>759.7480542298948</v>
+        <v>752.5486279873834</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -17382,13 +17382,13 @@
         <v>0</v>
       </c>
       <c r="H407">
-        <v>0.5172852762896665</v>
+        <v>0.5222340025971537</v>
       </c>
       <c r="I407">
         <v>1.613777734208184</v>
       </c>
       <c r="J407">
-        <v>2.045806677149652</v>
+        <v>2.037325608336981</v>
       </c>
       <c r="K407">
         <v>848.8819512648819</v>
@@ -17414,7 +17414,7 @@
         <v>379.5158869047743</v>
       </c>
       <c r="E408">
-        <v>760.3620738075384</v>
+        <v>753.2226933204803</v>
       </c>
       <c r="F408">
         <v>0</v>
@@ -17423,13 +17423,13 @@
         <v>0</v>
       </c>
       <c r="H408">
-        <v>0.499125219389673</v>
+        <v>0.5038561507377451</v>
       </c>
       <c r="I408">
         <v>1.588506116140708</v>
       </c>
       <c r="J408">
-        <v>2.033694460181635</v>
+        <v>2.02534891521935</v>
       </c>
       <c r="K408">
         <v>855.4720535714379</v>
@@ -17455,7 +17455,7 @@
         <v>400.4411607142857</v>
       </c>
       <c r="E409">
-        <v>769.2858250026266</v>
+        <v>763.0191094948228</v>
       </c>
       <c r="F409">
         <v>0</v>
@@ -17464,13 +17464,13 @@
         <v>0</v>
       </c>
       <c r="H409">
-        <v>0.5205362528458372</v>
+        <v>0.5248114440795703</v>
       </c>
       <c r="I409">
         <v>1.611013673542487</v>
       </c>
       <c r="J409">
-        <v>2.04015197642929</v>
+        <v>2.032860864701044</v>
       </c>
       <c r="K409">
         <v>859.5006826636825</v>
@@ -17496,7 +17496,7 @@
         <v>386.0481666666719</v>
       </c>
       <c r="E410">
-        <v>759.9711881417705</v>
+        <v>752.7935824482996</v>
       </c>
       <c r="F410">
         <v>0</v>
@@ -17505,13 +17505,13 @@
         <v>0</v>
       </c>
       <c r="H410">
-        <v>0.5079773716298513</v>
+        <v>0.5128207461747124</v>
       </c>
       <c r="I410">
         <v>1.583614779837349</v>
       </c>
       <c r="J410">
-        <v>2.018496180467109</v>
+        <v>2.010148453694814</v>
       </c>
       <c r="K410">
         <v>859.8275781250115</v>
@@ -17537,7 +17537,7 @@
         <v>385.5061785714254</v>
       </c>
       <c r="E411">
-        <v>762.0500256660805</v>
+        <v>755.0757121381312</v>
       </c>
       <c r="F411">
         <v>0</v>
@@ -17546,13 +17546,13 @@
         <v>0</v>
       </c>
       <c r="H411">
-        <v>0.5058804088805959</v>
+        <v>0.5105530112732618</v>
       </c>
       <c r="I411">
         <v>1.58686138215108</v>
       </c>
       <c r="J411">
-        <v>2.022548463588246</v>
+        <v>2.014478704038421</v>
       </c>
       <c r="K411">
         <v>864.2529538690357</v>
@@ -17578,7 +17578,7 @@
         <v>367.3746904761862</v>
       </c>
       <c r="E412">
-        <v>756.8497212954225</v>
+        <v>749.3668633889348</v>
       </c>
       <c r="F412">
         <v>0</v>
@@ -17587,13 +17587,13 @@
         <v>0</v>
       </c>
       <c r="H412">
-        <v>0.4853997829944212</v>
+        <v>0.4902467782132396</v>
       </c>
       <c r="I412">
         <v>1.562208028251417</v>
       </c>
       <c r="J412">
-        <v>2.012922907945707</v>
+        <v>2.004263468612721</v>
       </c>
       <c r="K412">
         <v>864.1272972470282</v>
@@ -17619,7 +17619,7 @@
         <v>364.700666666667</v>
       </c>
       <c r="E413">
-        <v>757.1194083256032</v>
+        <v>749.6629234568048</v>
       </c>
       <c r="F413">
         <v>0</v>
@@ -17628,13 +17628,13 @@
         <v>0</v>
       </c>
       <c r="H413">
-        <v>0.4816950439471835</v>
+        <v>0.4864861996708856</v>
       </c>
       <c r="I413">
         <v>1.551362076761023</v>
       </c>
       <c r="J413">
-        <v>1.999299320210596</v>
+        <v>1.990787908997581</v>
       </c>
       <c r="K413">
         <v>876.057410714283</v>
@@ -17660,7 +17660,7 @@
         <v>349.7781488095289</v>
       </c>
       <c r="E414">
-        <v>757.5737025490624</v>
+        <v>750.1616436901811</v>
       </c>
       <c r="F414">
         <v>0</v>
@@ -17669,13 +17669,13 @@
         <v>0</v>
       </c>
       <c r="H414">
-        <v>0.4617084088750776</v>
+        <v>0.4662703721945937</v>
       </c>
       <c r="I414">
         <v>1.535233568573125</v>
       </c>
       <c r="J414">
-        <v>1.996075775530909</v>
+        <v>1.987699545012198</v>
       </c>
       <c r="K414">
         <v>884.8919382440481</v>
@@ -17701,7 +17701,7 @@
         <v>349.1795357142802</v>
       </c>
       <c r="E415">
-        <v>759.2472068881306</v>
+        <v>751.9988021470533</v>
       </c>
       <c r="F415">
         <v>0</v>
@@ -17710,13 +17710,13 @@
         <v>0</v>
       </c>
       <c r="H415">
-        <v>0.4599022986800783</v>
+        <v>0.4643352286164921</v>
       </c>
       <c r="I415">
         <v>1.52760795990626</v>
       </c>
       <c r="J415">
-        <v>1.990392150061574</v>
+        <v>1.982211921885052</v>
       </c>
       <c r="K415">
         <v>886.0883320932543</v>
@@ -17742,7 +17742,7 @@
         <v>383.1050833333381</v>
       </c>
       <c r="E416">
-        <v>760.5683522800279</v>
+        <v>753.4491440271547</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -17751,13 +17751,13 @@
         <v>0</v>
       </c>
       <c r="H416">
-        <v>0.5037089463226647</v>
+        <v>0.5084684034355088</v>
       </c>
       <c r="I416">
         <v>1.564930205917787</v>
       </c>
       <c r="J416">
-        <v>1.98931568835949</v>
+        <v>1.981311495958387</v>
       </c>
       <c r="K416">
         <v>889.4349231150755</v>
@@ -17783,7 +17783,7 @@
         <v>374.2397321428531</v>
       </c>
       <c r="E417">
-        <v>757.7807836615227</v>
+        <v>750.38897552801</v>
       </c>
       <c r="F417">
         <v>0</v>
@@ -17792,13 +17792,13 @@
         <v>0</v>
       </c>
       <c r="H417">
-        <v>0.4938627901522698</v>
+        <v>0.4987276523879098</v>
       </c>
       <c r="I417">
         <v>1.556000513929102</v>
       </c>
       <c r="J417">
-        <v>1.984957846751459</v>
+        <v>1.976690751771323</v>
       </c>
       <c r="K417">
         <v>894.1240122767742</v>
@@ -17824,7 +17824,7 @@
         <v>367.8976190476276</v>
       </c>
       <c r="E418">
-        <v>757.3778583961931</v>
+        <v>749.9466476885136</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -17833,13 +17833,13 @@
         <v>0</v>
       </c>
       <c r="H418">
-        <v>0.4857517485745882</v>
+        <v>0.4905650557697165</v>
       </c>
       <c r="I418">
         <v>1.549627590484169</v>
       </c>
       <c r="J418">
-        <v>1.985134950072747</v>
+        <v>1.976825550450161</v>
       </c>
       <c r="K418">
         <v>894.3137946428753</v>
@@ -17865,7 +17865,7 @@
         <v>380.690369047607</v>
       </c>
       <c r="E419">
-        <v>758.9261508998201</v>
+        <v>751.6463496853032</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -17874,13 +17874,13 @@
         <v>0</v>
       </c>
       <c r="H419">
-        <v>0.5016171449570447</v>
+        <v>0.5064753779579894</v>
       </c>
       <c r="I419">
         <v>1.555049049566865</v>
       </c>
       <c r="J419">
-        <v>1.973891407966333</v>
+        <v>1.965830063017855</v>
       </c>
       <c r="K419">
         <v>903.0504538690383</v>
@@ -17906,7 +17906,7 @@
         <v>368.6151428571396</v>
       </c>
       <c r="E420">
-        <v>756.9845648105129</v>
+        <v>749.5148934228698</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -17915,13 +17915,13 @@
         <v>0</v>
       </c>
       <c r="H420">
-        <v>0.4869519934655613</v>
+        <v>0.4918049609044529</v>
       </c>
       <c r="I420">
         <v>1.542366982044788</v>
       </c>
       <c r="J420">
-        <v>1.969692174551026</v>
+        <v>1.961473250549161</v>
       </c>
       <c r="K420">
         <v>908.8381138392836</v>
@@ -17947,7 +17947,7 @@
         <v>390.3801785714348</v>
       </c>
       <c r="E421">
-        <v>757.7157698238898</v>
+        <v>750.3176039045055</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -17956,13 +17956,13 @@
         <v>0</v>
       </c>
       <c r="H421">
-        <v>0.5152066172018143</v>
+        <v>0.5202865780303874</v>
       </c>
       <c r="I421">
         <v>1.563679438883223</v>
       </c>
       <c r="J421">
-        <v>1.96770344949796</v>
+        <v>1.959566376104795</v>
       </c>
       <c r="K421">
         <v>909.1924776785808</v>
@@ -17988,7 +17988,7 @@
         <v>421.7289285714256</v>
       </c>
       <c r="E422">
-        <v>760.8027231514945</v>
+        <v>753.7064343242322</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -17997,13 +17997,13 @@
         <v>0</v>
       </c>
       <c r="H422">
-        <v>0.5543210029854861</v>
+        <v>0.559540040214125</v>
       </c>
       <c r="I422">
         <v>1.585633447330823</v>
       </c>
       <c r="J422">
-        <v>1.950640530783902</v>
+        <v>1.943001498426985</v>
       </c>
       <c r="K422">
         <v>928.9512723214215</v>
@@ -18029,7 +18029,7 @@
         <v>553.2353988095232</v>
       </c>
       <c r="E423">
-        <v>760.6381819574854</v>
+        <v>753.5258024375853</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -18038,13 +18038,13 @@
         <v>0</v>
       </c>
       <c r="H423">
-        <v>0.7273305652179913</v>
+        <v>0.7341956931267098</v>
       </c>
       <c r="I423">
         <v>1.641869691480086</v>
       </c>
       <c r="J423">
-        <v>1.836804492611161</v>
+        <v>1.830119672541551</v>
       </c>
       <c r="K423">
         <v>1063.959754464283</v>
@@ -18070,7 +18070,7 @@
         <v>711.2052440476268</v>
       </c>
       <c r="E424">
-        <v>761.8204706344385</v>
+        <v>754.8237086279798</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -18079,13 +18079,13 @@
         <v>0</v>
       </c>
       <c r="H424">
-        <v>0.933560164713532</v>
+        <v>0.9422137062180559</v>
       </c>
       <c r="I424">
         <v>1.728749550301856</v>
       </c>
       <c r="J424">
-        <v>1.772418631914998</v>
+        <v>1.76638206561486</v>
       </c>
       <c r="K424">
         <v>1159.063225446424</v>
@@ -18111,7 +18111,7 @@
         <v>754.9097261904681</v>
       </c>
       <c r="E425">
-        <v>762.6383607646593</v>
+        <v>755.7215812742882</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -18120,13 +18120,13 @@
         <v>0</v>
       </c>
       <c r="H425">
-        <v>0.9898659247006115</v>
+        <v>0.9989257219802415</v>
       </c>
       <c r="I425">
         <v>1.763003220665465</v>
       </c>
       <c r="J425">
-        <v>1.769646739331372</v>
+        <v>1.763701089655336</v>
       </c>
       <c r="K425">
         <v>1163.334516369061</v>
@@ -18152,7 +18152,7 @@
         <v>826.3138630952391</v>
       </c>
       <c r="E426">
-        <v>767.0793677229632</v>
+        <v>760.5968799514457</v>
       </c>
       <c r="F426">
         <v>0</v>
@@ -18161,13 +18161,13 @@
         <v>0</v>
       </c>
       <c r="H426">
-        <v>1.077220816860334</v>
+        <v>1.086401857378101</v>
       </c>
       <c r="I426">
         <v>1.818990045552791</v>
       </c>
       <c r="J426">
-        <v>1.768348379312767</v>
+        <v>1.762806271119441</v>
       </c>
       <c r="K426">
         <v>1169.679036458322</v>
@@ -18193,7 +18193,7 @@
         <v>742.0769999999972</v>
       </c>
       <c r="E427">
-        <v>766.7711539741852</v>
+        <v>760.2585255881656</v>
       </c>
       <c r="F427">
         <v>0</v>
@@ -18202,13 +18202,13 @@
         <v>0</v>
       </c>
       <c r="H427">
-        <v>0.9677946231464266</v>
+        <v>0.9760850750419372</v>
       </c>
       <c r="I427">
         <v>1.74039354200692</v>
       </c>
       <c r="J427">
-        <v>1.761480022773561</v>
+        <v>1.755918851763384</v>
       </c>
       <c r="K427">
         <v>1171.089393601187</v>
@@ -18234,7 +18234,7 @@
         <v>753.7217619047677</v>
       </c>
       <c r="E428">
-        <v>765.2389142699737</v>
+        <v>758.5764462144635</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -18243,13 +18243,13 @@
         <v>0</v>
       </c>
       <c r="H428">
-        <v>0.9849495992030238</v>
+        <v>0.9936002701719487</v>
       </c>
       <c r="I428">
         <v>1.750978894532601</v>
       </c>
       <c r="J428">
-        <v>1.760750699072403</v>
+        <v>1.755097883729975</v>
       </c>
       <c r="K428">
         <v>1178.610595238107</v>
@@ -18275,7 +18275,7 @@
         <v>793.5319523809442</v>
       </c>
       <c r="E429">
-        <v>771.0516329383338</v>
+        <v>764.9575980344481</v>
       </c>
       <c r="F429">
         <v>0</v>
@@ -18284,13 +18284,13 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <v>1.029155400860695</v>
+        <v>1.037354167629575</v>
       </c>
       <c r="I429">
         <v>1.782631247549346</v>
       </c>
       <c r="J429">
-        <v>1.76360279177989</v>
+        <v>1.758444498815142</v>
       </c>
       <c r="K429">
         <v>1181.405349702386</v>
@@ -18316,7 +18316,7 @@
         <v>752.3816666666714</v>
       </c>
       <c r="E430">
-        <v>763.0003513914793</v>
+        <v>756.1189714249114</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -18325,13 +18325,13 @@
         <v>0</v>
       </c>
       <c r="H430">
-        <v>0.986082988421378</v>
+        <v>0.9950572530256754</v>
       </c>
       <c r="I430">
         <v>1.743283711313718</v>
       </c>
       <c r="J430">
-        <v>1.752246149414147</v>
+        <v>1.746438090921571</v>
       </c>
       <c r="K430">
         <v>1184.798668154748</v>
@@ -18357,7 +18357,7 @@
         <v>781.2117380952362</v>
       </c>
       <c r="E431">
-        <v>768.5217117504477</v>
+        <v>762.1802726358577</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -18366,13 +18366,13 @@
         <v>0</v>
       </c>
       <c r="H431">
-        <v>1.016512254827368</v>
+        <v>1.024969769151282</v>
       </c>
       <c r="I431">
         <v>1.761638881471288</v>
       </c>
       <c r="J431">
-        <v>1.750943389536128</v>
+        <v>1.745598655879586</v>
       </c>
       <c r="K431">
         <v>1186.483653273822</v>
@@ -18398,7 +18398,7 @@
         <v>777.5596011904888</v>
       </c>
       <c r="E432">
-        <v>773.0911411040757</v>
+        <v>767.1965522977154</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -18407,13 +18407,13 @@
         <v>0</v>
       </c>
       <c r="H432">
-        <v>1.005779991321633</v>
+        <v>1.013507684389009</v>
       </c>
       <c r="I432">
         <v>1.758748570972299</v>
       </c>
       <c r="J432">
-        <v>1.754984517362719</v>
+        <v>1.750019149463153</v>
       </c>
       <c r="K432">
         <v>1187.140394345247</v>
@@ -18439,7 +18439,7 @@
         <v>774.6004583333228</v>
       </c>
       <c r="E433">
-        <v>779.6005512670695</v>
+        <v>774.3425259596975</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -18448,13 +18448,13 @@
         <v>0</v>
       </c>
       <c r="H433">
-        <v>0.9935863399203346</v>
+        <v>1.000333098551323</v>
       </c>
       <c r="I433">
         <v>1.766456888419981</v>
       </c>
       <c r="J433">
-        <v>1.770666220015825</v>
+        <v>1.766239747877939</v>
       </c>
       <c r="K433">
         <v>1187.859122023796</v>
@@ -18480,7 +18480,7 @@
         <v>749.7493154761878</v>
       </c>
       <c r="E434">
-        <v>769.4118394780384</v>
+        <v>763.1574470860597</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -18489,13 +18489,13 @@
         <v>0</v>
       </c>
       <c r="H434">
-        <v>0.9744447342853608</v>
+        <v>0.982430713791672</v>
       </c>
       <c r="I434">
         <v>1.737417508616715</v>
       </c>
       <c r="J434">
-        <v>1.753861541422048</v>
+        <v>1.74863090909522</v>
       </c>
       <c r="K434">
         <v>1195.723958630952</v>
@@ -18521,7 +18521,7 @@
         <v>765.4629404762014</v>
       </c>
       <c r="E435">
-        <v>775.1033595108113</v>
+        <v>769.4055481017338</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -18530,13 +18530,13 @@
         <v>0</v>
       </c>
       <c r="H435">
-        <v>0.9875624083984177</v>
+        <v>0.994875774375088</v>
       </c>
       <c r="I435">
         <v>1.75043757770163</v>
       </c>
       <c r="J435">
-        <v>1.758472687100096</v>
+        <v>1.753723667597997</v>
       </c>
       <c r="K435">
         <v>1199.786904761912</v>
@@ -18562,7 +18562,7 @@
         <v>777.5584345237972</v>
       </c>
       <c r="E436">
-        <v>779.9336468549415</v>
+        <v>774.7081953887632</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -18571,13 +18571,13 @@
         <v>0</v>
       </c>
       <c r="H436">
-        <v>0.9969545969189531</v>
+        <v>1.003679113183518</v>
       </c>
       <c r="I436">
         <v>1.757850798196975</v>
       </c>
       <c r="J436">
-        <v>1.759829931155242</v>
+        <v>1.755475851697613</v>
       </c>
       <c r="K436">
         <v>1200.127723214272</v>
@@ -18603,7 +18603,7 @@
         <v>789.366267857157</v>
       </c>
       <c r="E437">
-        <v>797.593331491956</v>
+        <v>794.0948430473245</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -18612,13 +18612,13 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <v>0.9896851398952777</v>
+        <v>0.9940453269133173</v>
       </c>
       <c r="I437">
         <v>1.769604528136931</v>
       </c>
       <c r="J437">
-        <v>1.776458822178078</v>
+        <v>1.77354409226185</v>
       </c>
       <c r="K437">
         <v>1200.278772023822</v>
@@ -18644,7 +18644,7 @@
         <v>753.8473273809484</v>
       </c>
       <c r="E438">
-        <v>775.4822055770176</v>
+        <v>769.8214420065988</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -18653,13 +18653,13 @@
         <v>0</v>
       </c>
       <c r="H438">
-        <v>0.9721013866720886</v>
+        <v>0.9792495847036781</v>
       </c>
       <c r="I438">
         <v>1.737820782444639</v>
       </c>
       <c r="J438">
-        <v>1.755842410441516</v>
+        <v>1.751127053399991</v>
       </c>
       <c r="K438">
         <v>1200.495216071412</v>
@@ -18685,7 +18685,7 @@
         <v>786.34151785714</v>
       </c>
       <c r="E439">
-        <v>795.3074128551858</v>
+        <v>791.5853815196642</v>
       </c>
       <c r="F439">
         <v>0</v>
@@ -18694,13 +18694,13 @@
         <v>0</v>
       </c>
       <c r="H439">
-        <v>0.9887265039239885</v>
+        <v>0.993375492037944</v>
       </c>
       <c r="I439">
         <v>1.764756881635319</v>
       </c>
       <c r="J439">
-        <v>1.772203950671333</v>
+        <v>1.769112432834477</v>
       </c>
       <c r="K439">
         <v>1203.949494047634</v>
@@ -18726,7 +18726,7 @@
         <v>803.6827380952392</v>
       </c>
       <c r="E440">
-        <v>799.4458245445071</v>
+        <v>796.1284937516223</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -18735,13 +18735,13 @@
         <v>0</v>
       </c>
       <c r="H440">
-        <v>1.005299813221423</v>
+        <v>1.00948872500219</v>
       </c>
       <c r="I440">
         <v>1.775330081941916</v>
       </c>
       <c r="J440">
-        <v>1.771820272090461</v>
+        <v>1.769072233888126</v>
       </c>
       <c r="K440">
         <v>1207.163273809522</v>
@@ -18767,7 +18767,7 @@
         <v>800.499285714292</v>
       </c>
       <c r="E441">
-        <v>796.2055669824842</v>
+        <v>792.5713672814099</v>
       </c>
       <c r="F441">
         <v>0</v>
@@ -18776,13 +18776,13 @@
         <v>0</v>
       </c>
       <c r="H441">
-        <v>1.00539272633835</v>
+        <v>1.010002781781123</v>
       </c>
       <c r="I441">
         <v>1.772825401950741</v>
       </c>
       <c r="J441">
-        <v>1.769279126301923</v>
+        <v>1.766277561758957</v>
       </c>
       <c r="K441">
         <v>1210.768467261899</v>
@@ -18808,7 +18808,7 @@
         <v>790.5117321428469</v>
       </c>
       <c r="E442">
-        <v>795.5465995664771</v>
+        <v>791.847958603668</v>
       </c>
       <c r="F442">
         <v>0</v>
@@ -18817,13 +18817,13 @@
         <v>0</v>
       </c>
       <c r="H442">
-        <v>0.9936711847849342</v>
+        <v>0.9983125214300264</v>
       </c>
       <c r="I442">
         <v>1.76023304811043</v>
       </c>
       <c r="J442">
-        <v>1.764378182462857</v>
+        <v>1.761333144247893</v>
       </c>
       <c r="K442">
         <v>1214.645170833333</v>
@@ -18849,22 +18849,22 @@
         <v>801.9769523809608</v>
       </c>
       <c r="E443">
-        <v>790.2339255999104</v>
+        <v>786.0157514928591</v>
       </c>
       <c r="F443">
-        <v>11.74302678105039</v>
+        <v>15.96120088810176</v>
       </c>
       <c r="G443">
-        <v>11.74302678105039</v>
+        <v>15.96120088810176</v>
       </c>
       <c r="H443">
-        <v>1.014860190635495</v>
+        <v>1.020306464415996</v>
       </c>
       <c r="I443">
         <v>1.761895831937071</v>
       </c>
       <c r="J443">
-        <v>1.752330060557685</v>
+        <v>1.748893971217276</v>
       </c>
       <c r="K443">
         <v>1227.608973214292</v>
@@ -18890,22 +18890,22 @@
         <v>810.326321428564</v>
       </c>
       <c r="E444">
-        <v>788.8493716503218</v>
+        <v>784.4958002515619</v>
       </c>
       <c r="F444">
-        <v>21.47694977824221</v>
+        <v>25.83052117700208</v>
       </c>
       <c r="G444">
-        <v>33.2199765592926</v>
+        <v>41.79172206510384</v>
       </c>
       <c r="H444">
-        <v>1.027225666331344</v>
+        <v>1.032926270820977</v>
       </c>
       <c r="I444">
         <v>1.767121902576645</v>
       </c>
       <c r="J444">
-        <v>1.749731969160434</v>
+        <v>1.746206872834892</v>
       </c>
       <c r="K444">
         <v>1235.021967261913</v>
@@ -18931,22 +18931,22 @@
         <v>797.9608214285718</v>
       </c>
       <c r="E445">
-        <v>795.8146813167162</v>
+        <v>792.1422564092293</v>
       </c>
       <c r="F445">
-        <v>2.146140111855516</v>
+        <v>5.818565019342486</v>
       </c>
       <c r="G445">
-        <v>35.36611667114812</v>
+        <v>47.61028708444633</v>
       </c>
       <c r="H445">
-        <v>1.00269678376416</v>
+        <v>1.007345353656196</v>
       </c>
       <c r="I445">
         <v>1.753283856831114</v>
       </c>
       <c r="J445">
-        <v>1.751550753845956</v>
+        <v>1.748585108436891</v>
       </c>
       <c r="K445">
         <v>1238.322321428563</v>
@@ -18972,22 +18972,22 @@
         <v>796.3075952381007</v>
       </c>
       <c r="E446">
-        <v>788.5138681425374</v>
+        <v>784.1274874290332</v>
       </c>
       <c r="F446">
-        <v>7.793727095563327</v>
+        <v>12.18010780906752</v>
       </c>
       <c r="G446">
-        <v>43.15984376671145</v>
+        <v>59.79039489351385</v>
       </c>
       <c r="H446">
-        <v>1.009884071048646</v>
+        <v>1.015533325899597</v>
       </c>
       <c r="I446">
         <v>1.750782418300335</v>
       </c>
       <c r="J446">
-        <v>1.744497178409087</v>
+        <v>1.740959788056478</v>
       </c>
       <c r="K446">
         <v>1240.004714285717</v>
@@ -19013,22 +19013,22 @@
         <v>802.7110119047602</v>
       </c>
       <c r="E447">
-        <v>784.9774364312982</v>
+        <v>780.2452235628564</v>
       </c>
       <c r="F447">
-        <v>17.733575473462</v>
+        <v>22.46578834190382</v>
       </c>
       <c r="G447">
-        <v>60.89341924017344</v>
+        <v>82.25618323541767</v>
       </c>
       <c r="H447">
-        <v>1.022591191352051</v>
+        <v>1.028793240462681</v>
       </c>
       <c r="I447">
         <v>1.754076038613683</v>
       </c>
       <c r="J447">
-        <v>1.739804437716286</v>
+        <v>1.735996054374697</v>
       </c>
       <c r="K447">
         <v>1242.577872023807</v>
@@ -19054,22 +19054,22 @@
         <v>181.1482749999967</v>
       </c>
       <c r="E448">
-        <v>756.8127998567668</v>
+        <v>749.3263313558335</v>
       </c>
       <c r="F448">
-        <v>-575.6645248567702</v>
+        <v>-568.1780563558368</v>
       </c>
       <c r="G448">
-        <v>-514.7711056165967</v>
+        <v>-485.9218731204191</v>
       </c>
       <c r="H448">
-        <v>0.2393567802160329</v>
+        <v>0.2417481775560007</v>
       </c>
       <c r="I448">
         <v>0.7987803135479077</v>
       </c>
       <c r="J448">
-        <v>1.735515984150051</v>
+        <v>1.723333815909949</v>
       </c>
       <c r="K448">
         <v>614.5431875000243</v>
